--- a/real_estate.xlsx
+++ b/real_estate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\factors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDDA9E0-FD30-4755-A1EC-B393EC6730DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pure crowded" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -112,11 +118,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +188,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +240,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,9 +309,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,14 +485,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O67" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" customWidth="1"/>
+    <col min="26" max="26" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -569,7 +596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -662,7 +689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43131</v>
       </c>
@@ -670,10 +697,10 @@
         <v>120.31</v>
       </c>
       <c r="C4">
-        <v>1568.561</v>
+        <v>1568.5609999999999</v>
       </c>
       <c r="D4">
-        <v>2340.859</v>
+        <v>2340.8589999999999</v>
       </c>
       <c r="E4">
         <v>1286.8</v>
@@ -682,7 +709,7 @@
         <v>496.71</v>
       </c>
       <c r="G4">
-        <v>296.9693</v>
+        <v>296.96929999999998</v>
       </c>
       <c r="H4">
         <v>264.63</v>
@@ -691,7 +718,7 @@
         <v>1652.39</v>
       </c>
       <c r="J4">
-        <v>1278.12</v>
+        <v>1278.1199999999999</v>
       </c>
       <c r="K4">
         <v>1418.87</v>
@@ -700,13 +727,13 @@
         <v>156.29</v>
       </c>
       <c r="M4">
-        <v>1172.36</v>
+        <v>1172.3599999999999</v>
       </c>
       <c r="N4">
-        <v>1287.8934</v>
+        <v>1287.8933999999999</v>
       </c>
       <c r="O4">
-        <v>2231.26</v>
+        <v>2231.2600000000002</v>
       </c>
       <c r="P4">
         <v>1346.55</v>
@@ -718,28 +745,28 @@
         <v>1060.94</v>
       </c>
       <c r="S4">
-        <v>1718.156</v>
+        <v>1718.1559999999999</v>
       </c>
       <c r="T4">
-        <v>262.15</v>
+        <v>262.14999999999998</v>
       </c>
       <c r="U4">
-        <v>449.5309</v>
+        <v>449.53089999999997</v>
       </c>
       <c r="V4">
         <v>1213.19</v>
       </c>
       <c r="W4">
-        <v>1074.12</v>
+        <v>1074.1199999999999</v>
       </c>
       <c r="X4">
         <v>1425.96</v>
       </c>
       <c r="Y4">
-        <v>1471.669</v>
+        <v>1471.6690000000001</v>
       </c>
       <c r="Z4">
-        <v>7872.145</v>
+        <v>7872.1450000000004</v>
       </c>
       <c r="AA4">
         <v>103.11</v>
@@ -748,16 +775,16 @@
         <v>4858.5</v>
       </c>
       <c r="AC4">
-        <v>545.2301</v>
+        <v>545.23009999999999</v>
       </c>
       <c r="AD4">
-        <v>790.0599999999999</v>
+        <v>790.06</v>
       </c>
       <c r="AE4">
-        <v>157.552</v>
+        <v>157.55199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43159</v>
       </c>
@@ -768,7 +795,7 @@
         <v>1462.433</v>
       </c>
       <c r="D5">
-        <v>2259.179</v>
+        <v>2259.1790000000001</v>
       </c>
       <c r="E5">
         <v>1193.22</v>
@@ -777,7 +804,7 @@
         <v>475.33</v>
       </c>
       <c r="G5">
-        <v>276.1204</v>
+        <v>276.12040000000002</v>
       </c>
       <c r="H5">
         <v>247.54</v>
@@ -795,7 +822,7 @@
         <v>145.4</v>
       </c>
       <c r="M5">
-        <v>1095.62</v>
+        <v>1095.6199999999999</v>
       </c>
       <c r="N5">
         <v>1198.7788</v>
@@ -819,7 +846,7 @@
         <v>242.59</v>
       </c>
       <c r="U5">
-        <v>418.0255</v>
+        <v>418.02550000000002</v>
       </c>
       <c r="V5">
         <v>1107.2</v>
@@ -834,7 +861,7 @@
         <v>1360.45</v>
       </c>
       <c r="Z5">
-        <v>6902.164</v>
+        <v>6902.1639999999998</v>
       </c>
       <c r="AA5">
         <v>98.25</v>
@@ -843,16 +870,16 @@
         <v>4539.62</v>
       </c>
       <c r="AC5">
-        <v>511.7119</v>
+        <v>511.71190000000001</v>
       </c>
       <c r="AD5">
         <v>759.59</v>
       </c>
       <c r="AE5">
-        <v>140.467</v>
+        <v>140.46700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43189</v>
       </c>
@@ -860,10 +887,10 @@
         <v>114.04</v>
       </c>
       <c r="C6">
-        <v>1502.119</v>
+        <v>1502.1189999999999</v>
       </c>
       <c r="D6">
-        <v>2256.74</v>
+        <v>2256.7399999999998</v>
       </c>
       <c r="E6">
         <v>1227.24</v>
@@ -872,7 +899,7 @@
         <v>487.16</v>
       </c>
       <c r="G6">
-        <v>283.6766</v>
+        <v>283.67660000000001</v>
       </c>
       <c r="H6">
         <v>251.62</v>
@@ -881,7 +908,7 @@
         <v>1567.85</v>
       </c>
       <c r="J6">
-        <v>1221.62</v>
+        <v>1221.6199999999999</v>
       </c>
       <c r="K6">
         <v>1371.56</v>
@@ -890,13 +917,13 @@
         <v>150.15</v>
       </c>
       <c r="M6">
-        <v>1117.89</v>
+        <v>1117.8900000000001</v>
       </c>
       <c r="N6">
-        <v>1225.1112</v>
+        <v>1225.1112000000001</v>
       </c>
       <c r="O6">
-        <v>2144.3</v>
+        <v>2144.3000000000002</v>
       </c>
       <c r="P6">
         <v>1256.32</v>
@@ -908,13 +935,13 @@
         <v>1033.76</v>
       </c>
       <c r="S6">
-        <v>1641.781</v>
+        <v>1641.7809999999999</v>
       </c>
       <c r="T6">
         <v>250.49</v>
       </c>
       <c r="U6">
-        <v>435.3565</v>
+        <v>435.35649999999998</v>
       </c>
       <c r="V6">
         <v>1143.04</v>
@@ -929,7 +956,7 @@
         <v>1402.675</v>
       </c>
       <c r="Z6">
-        <v>6709.758</v>
+        <v>6709.7579999999998</v>
       </c>
       <c r="AA6">
         <v>100.97</v>
@@ -938,7 +965,7 @@
         <v>4646.26</v>
       </c>
       <c r="AC6">
-        <v>524.8439</v>
+        <v>524.84389999999996</v>
       </c>
       <c r="AD6">
         <v>752.89</v>
@@ -947,7 +974,7 @@
         <v>135.15</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43220</v>
       </c>
@@ -955,19 +982,19 @@
         <v>115.47</v>
       </c>
       <c r="C7">
-        <v>1507.574</v>
+        <v>1507.5740000000001</v>
       </c>
       <c r="D7">
         <v>2276.75</v>
       </c>
       <c r="E7">
-        <v>1242.91</v>
+        <v>1242.9100000000001</v>
       </c>
       <c r="F7">
         <v>507.29</v>
       </c>
       <c r="G7">
-        <v>285.0698</v>
+        <v>285.06979999999999</v>
       </c>
       <c r="H7">
         <v>254.03</v>
@@ -985,16 +1012,16 @@
         <v>149.01</v>
       </c>
       <c r="M7">
-        <v>1125.09</v>
+        <v>1125.0899999999999</v>
       </c>
       <c r="N7">
-        <v>1233.4459</v>
+        <v>1233.4458999999999</v>
       </c>
       <c r="O7">
         <v>2127.92</v>
       </c>
       <c r="P7">
-        <v>1303.65</v>
+        <v>1303.6500000000001</v>
       </c>
       <c r="Q7">
         <v>1471.52</v>
@@ -1003,7 +1030,7 @@
         <v>1068.83</v>
       </c>
       <c r="S7">
-        <v>1654.494</v>
+        <v>1654.4939999999999</v>
       </c>
       <c r="T7">
         <v>253.79</v>
@@ -1012,16 +1039,16 @@
         <v>433.8689</v>
       </c>
       <c r="V7">
-        <v>1173.36</v>
+        <v>1173.3599999999999</v>
       </c>
       <c r="W7">
-        <v>1037.09</v>
+        <v>1037.0899999999999</v>
       </c>
       <c r="X7">
         <v>1381.08</v>
       </c>
       <c r="Y7">
-        <v>1404.629</v>
+        <v>1404.6289999999999</v>
       </c>
       <c r="Z7">
         <v>6270.991</v>
@@ -1030,7 +1057,7 @@
         <v>104.48</v>
       </c>
       <c r="AB7">
-        <v>4691.9</v>
+        <v>4691.8999999999996</v>
       </c>
       <c r="AC7">
         <v>536.101</v>
@@ -1042,7 +1069,7 @@
         <v>146.47</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43251</v>
       </c>
@@ -1050,19 +1077,19 @@
         <v>115.36</v>
       </c>
       <c r="C8">
-        <v>1528.618</v>
+        <v>1528.6179999999999</v>
       </c>
       <c r="D8">
         <v>2304.652</v>
       </c>
       <c r="E8">
-        <v>1256.9</v>
+        <v>1256.9000000000001</v>
       </c>
       <c r="F8">
         <v>535.88</v>
       </c>
       <c r="G8">
-        <v>303.8593</v>
+        <v>303.85930000000002</v>
       </c>
       <c r="H8">
         <v>254.49</v>
@@ -1071,19 +1098,19 @@
         <v>1584.45</v>
       </c>
       <c r="J8">
-        <v>1266.1</v>
+        <v>1266.0999999999999</v>
       </c>
       <c r="K8">
         <v>1462.96</v>
       </c>
       <c r="L8">
-        <v>151.95</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="M8">
-        <v>1132.38</v>
+        <v>1132.3800000000001</v>
       </c>
       <c r="N8">
-        <v>1253.7992</v>
+        <v>1253.7991999999999</v>
       </c>
       <c r="O8">
         <v>2168.29</v>
@@ -1098,19 +1125,19 @@
         <v>1131.19</v>
       </c>
       <c r="S8">
-        <v>1676.767</v>
+        <v>1676.7670000000001</v>
       </c>
       <c r="T8">
-        <v>263.09</v>
+        <v>263.08999999999997</v>
       </c>
       <c r="U8">
-        <v>447.7874</v>
+        <v>447.78739999999999</v>
       </c>
       <c r="V8">
         <v>1110.17</v>
       </c>
       <c r="W8">
-        <v>1047.87</v>
+        <v>1047.8699999999999</v>
       </c>
       <c r="X8">
         <v>1428.8</v>
@@ -1128,16 +1155,16 @@
         <v>4725.71</v>
       </c>
       <c r="AC8">
-        <v>550.9527</v>
+        <v>550.95270000000005</v>
       </c>
       <c r="AD8">
         <v>644.72</v>
       </c>
       <c r="AE8">
-        <v>136.098</v>
+        <v>136.09800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43280</v>
       </c>
@@ -1148,7 +1175,7 @@
         <v>1576.385</v>
       </c>
       <c r="D9">
-        <v>2301.017</v>
+        <v>2301.0169999999998</v>
       </c>
       <c r="E9">
         <v>1290.29</v>
@@ -1157,7 +1184,7 @@
         <v>535.63</v>
       </c>
       <c r="G9">
-        <v>314.6906</v>
+        <v>314.69060000000002</v>
       </c>
       <c r="H9">
         <v>257.07</v>
@@ -1178,10 +1205,10 @@
         <v>1137.22</v>
       </c>
       <c r="N9">
-        <v>1278.5848</v>
+        <v>1278.5848000000001</v>
       </c>
       <c r="O9">
-        <v>2249.26</v>
+        <v>2249.2600000000002</v>
       </c>
       <c r="P9">
         <v>1395.69</v>
@@ -1193,13 +1220,13 @@
         <v>1163.96</v>
       </c>
       <c r="S9">
-        <v>1698.763</v>
+        <v>1698.7629999999999</v>
       </c>
       <c r="T9">
         <v>272.75</v>
       </c>
       <c r="U9">
-        <v>468.1168</v>
+        <v>468.11680000000001</v>
       </c>
       <c r="V9">
         <v>1105.07</v>
@@ -1211,28 +1238,28 @@
         <v>1480.55</v>
       </c>
       <c r="Y9">
-        <v>1506.833</v>
+        <v>1506.8330000000001</v>
       </c>
       <c r="Z9">
-        <v>5474.325</v>
+        <v>5474.3249999999998</v>
       </c>
       <c r="AA9">
         <v>104.68</v>
       </c>
       <c r="AB9">
-        <v>4759.19</v>
+        <v>4759.1899999999996</v>
       </c>
       <c r="AC9">
-        <v>567.9032999999999</v>
+        <v>567.90329999999994</v>
       </c>
       <c r="AD9">
         <v>612.87</v>
       </c>
       <c r="AE9">
-        <v>130.95</v>
+        <v>130.94999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43312</v>
       </c>
@@ -1243,7 +1270,7 @@
         <v>1593.895</v>
       </c>
       <c r="D10">
-        <v>2342.408</v>
+        <v>2342.4079999999999</v>
       </c>
       <c r="E10">
         <v>1298.28</v>
@@ -1252,7 +1279,7 @@
         <v>534.52</v>
       </c>
       <c r="G10">
-        <v>316.769</v>
+        <v>316.76900000000001</v>
       </c>
       <c r="H10">
         <v>259.89</v>
@@ -1309,7 +1336,7 @@
         <v>1517.85</v>
       </c>
       <c r="Z10">
-        <v>5343.062</v>
+        <v>5343.0619999999999</v>
       </c>
       <c r="AA10">
         <v>106.43</v>
@@ -1318,16 +1345,16 @@
         <v>4799.57</v>
       </c>
       <c r="AC10">
-        <v>572.0247000000001</v>
+        <v>572.02470000000005</v>
       </c>
       <c r="AD10">
         <v>650.59</v>
       </c>
       <c r="AE10">
-        <v>129.813</v>
+        <v>129.81299999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43343</v>
       </c>
@@ -1335,10 +1362,10 @@
         <v>115.15</v>
       </c>
       <c r="C11">
-        <v>1619.783</v>
+        <v>1619.7829999999999</v>
       </c>
       <c r="D11">
-        <v>2351.176</v>
+        <v>2351.1759999999999</v>
       </c>
       <c r="E11">
         <v>1333.53</v>
@@ -1362,7 +1389,7 @@
         <v>1551.51</v>
       </c>
       <c r="L11">
-        <v>162.98</v>
+        <v>162.97999999999999</v>
       </c>
       <c r="M11">
         <v>1147.71</v>
@@ -1389,7 +1416,7 @@
         <v>281.23</v>
       </c>
       <c r="U11">
-        <v>485.1197</v>
+        <v>485.11970000000002</v>
       </c>
       <c r="V11">
         <v>1063.97</v>
@@ -1413,7 +1440,7 @@
         <v>4827.87</v>
       </c>
       <c r="AC11">
-        <v>582.7320999999999</v>
+        <v>582.73209999999995</v>
       </c>
       <c r="AD11">
         <v>618.38</v>
@@ -1422,7 +1449,7 @@
         <v>133.006</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43371</v>
       </c>
@@ -1430,7 +1457,7 @@
         <v>111.69</v>
       </c>
       <c r="C12">
-        <v>1579.976</v>
+        <v>1579.9760000000001</v>
       </c>
       <c r="D12">
         <v>2330.364</v>
@@ -1442,7 +1469,7 @@
         <v>534.77</v>
       </c>
       <c r="G12">
-        <v>313.079</v>
+        <v>313.07900000000001</v>
       </c>
       <c r="H12">
         <v>253.62</v>
@@ -1466,7 +1493,7 @@
         <v>1268.9673</v>
       </c>
       <c r="O12">
-        <v>2246.72</v>
+        <v>2246.7199999999998</v>
       </c>
       <c r="P12">
         <v>1445.51</v>
@@ -1478,10 +1505,10 @@
         <v>1173.47</v>
       </c>
       <c r="S12">
-        <v>1681.687</v>
+        <v>1681.6869999999999</v>
       </c>
       <c r="T12">
-        <v>272.09</v>
+        <v>272.08999999999997</v>
       </c>
       <c r="U12">
         <v>470.8252</v>
@@ -1499,16 +1526,16 @@
         <v>1511.924</v>
       </c>
       <c r="Z12">
-        <v>5131.019</v>
+        <v>5131.0190000000002</v>
       </c>
       <c r="AA12">
         <v>103.98</v>
       </c>
       <c r="AB12">
-        <v>4712.61</v>
+        <v>4712.6099999999997</v>
       </c>
       <c r="AC12">
-        <v>568.9401</v>
+        <v>568.94010000000003</v>
       </c>
       <c r="AD12">
         <v>611.23</v>
@@ -1517,7 +1544,7 @@
         <v>126.485</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43404</v>
       </c>
@@ -1525,10 +1552,10 @@
         <v>106.42</v>
       </c>
       <c r="C13">
-        <v>1539.483</v>
+        <v>1539.4829999999999</v>
       </c>
       <c r="D13">
-        <v>2246.344</v>
+        <v>2246.3440000000001</v>
       </c>
       <c r="E13">
         <v>1240.07</v>
@@ -1537,7 +1564,7 @@
         <v>531.26</v>
       </c>
       <c r="G13">
-        <v>300.2854</v>
+        <v>300.28539999999998</v>
       </c>
       <c r="H13">
         <v>243.68</v>
@@ -1555,7 +1582,7 @@
         <v>155.09</v>
       </c>
       <c r="M13">
-        <v>1065.9</v>
+        <v>1065.9000000000001</v>
       </c>
       <c r="N13">
         <v>1227.5688</v>
@@ -1579,7 +1606,7 @@
         <v>264.81</v>
       </c>
       <c r="U13">
-        <v>466.6117</v>
+        <v>466.61169999999998</v>
       </c>
       <c r="V13">
         <v>969.38</v>
@@ -1591,10 +1618,10 @@
         <v>1436.1</v>
       </c>
       <c r="Y13">
-        <v>1475.844</v>
+        <v>1475.8440000000001</v>
       </c>
       <c r="Z13">
-        <v>4903.905</v>
+        <v>4903.9049999999997</v>
       </c>
       <c r="AA13">
         <v>100.22</v>
@@ -1603,16 +1630,16 @@
         <v>4516.47</v>
       </c>
       <c r="AC13">
-        <v>553.0323</v>
+        <v>553.03229999999996</v>
       </c>
       <c r="AD13">
-        <v>753.4400000000001</v>
+        <v>753.44</v>
       </c>
       <c r="AE13">
         <v>123.851</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43434</v>
       </c>
@@ -1623,16 +1650,16 @@
         <v>1606.693</v>
       </c>
       <c r="D14">
-        <v>2335.463</v>
+        <v>2335.4630000000002</v>
       </c>
       <c r="E14">
-        <v>1293.88</v>
+        <v>1293.8800000000001</v>
       </c>
       <c r="F14">
         <v>531.86</v>
       </c>
       <c r="G14">
-        <v>309.2632</v>
+        <v>309.26319999999998</v>
       </c>
       <c r="H14">
         <v>254.17</v>
@@ -1656,7 +1683,7 @@
         <v>1270.46</v>
       </c>
       <c r="O14">
-        <v>2325.78</v>
+        <v>2325.7800000000002</v>
       </c>
       <c r="P14">
         <v>1461.87</v>
@@ -1686,10 +1713,10 @@
         <v>1499.28</v>
       </c>
       <c r="Y14">
-        <v>1543.353</v>
+        <v>1543.3530000000001</v>
       </c>
       <c r="Z14">
-        <v>5173.579</v>
+        <v>5173.5789999999997</v>
       </c>
       <c r="AA14">
         <v>99.98</v>
@@ -1698,7 +1725,7 @@
         <v>4710.07</v>
       </c>
       <c r="AC14">
-        <v>571.1246</v>
+        <v>571.12459999999999</v>
       </c>
       <c r="AD14">
         <v>764.16</v>
@@ -1707,7 +1734,7 @@
         <v>121.637</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43465</v>
       </c>
@@ -1718,16 +1745,16 @@
         <v>1508.356</v>
       </c>
       <c r="D15">
-        <v>2359.144</v>
+        <v>2359.1439999999998</v>
       </c>
       <c r="E15">
-        <v>1188.1</v>
+        <v>1188.0999999999999</v>
       </c>
       <c r="F15">
         <v>486.96</v>
       </c>
       <c r="G15">
-        <v>287.7229</v>
+        <v>287.72289999999998</v>
       </c>
       <c r="H15">
         <v>240.52</v>
@@ -1742,16 +1769,16 @@
         <v>1351.68</v>
       </c>
       <c r="L15">
-        <v>150.39</v>
+        <v>150.38999999999999</v>
       </c>
       <c r="M15">
         <v>1044.25</v>
       </c>
       <c r="N15">
-        <v>1189.2032</v>
+        <v>1189.2031999999999</v>
       </c>
       <c r="O15">
-        <v>2145.68</v>
+        <v>2145.6799999999998</v>
       </c>
       <c r="P15">
         <v>1321.73</v>
@@ -1760,7 +1787,7 @@
         <v>1554.75</v>
       </c>
       <c r="R15">
-        <v>1133.65</v>
+        <v>1133.6500000000001</v>
       </c>
       <c r="S15">
         <v>1565.126</v>
@@ -1781,19 +1808,19 @@
         <v>1363.4</v>
       </c>
       <c r="Y15">
-        <v>1415.186</v>
+        <v>1415.1859999999999</v>
       </c>
       <c r="Z15">
-        <v>4933.562</v>
+        <v>4933.5619999999999</v>
       </c>
       <c r="AA15">
         <v>95.53</v>
       </c>
       <c r="AB15">
-        <v>4472.85</v>
+        <v>4472.8500000000004</v>
       </c>
       <c r="AC15">
-        <v>536.772</v>
+        <v>536.77200000000005</v>
       </c>
       <c r="AD15">
         <v>814.08</v>
@@ -1802,7 +1829,7 @@
         <v>120.227</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43496</v>
       </c>
@@ -1813,7 +1840,7 @@
         <v>1666.902</v>
       </c>
       <c r="D16">
-        <v>2538.356</v>
+        <v>2538.3560000000002</v>
       </c>
       <c r="E16">
         <v>1330.94</v>
@@ -1843,7 +1870,7 @@
         <v>1153.24</v>
       </c>
       <c r="N16">
-        <v>1317.2648</v>
+        <v>1317.2647999999999</v>
       </c>
       <c r="O16">
         <v>2372.69</v>
@@ -1858,13 +1885,13 @@
         <v>1254.49</v>
       </c>
       <c r="S16">
-        <v>1733.457</v>
+        <v>1733.4570000000001</v>
       </c>
       <c r="T16">
         <v>279.68</v>
       </c>
       <c r="U16">
-        <v>502.9799</v>
+        <v>502.97989999999999</v>
       </c>
       <c r="V16">
         <v>979.89</v>
@@ -1876,10 +1903,10 @@
         <v>1517.63</v>
       </c>
       <c r="Y16">
-        <v>1574.709</v>
+        <v>1574.7090000000001</v>
       </c>
       <c r="Z16">
-        <v>5180.441</v>
+        <v>5180.4409999999998</v>
       </c>
       <c r="AA16">
         <v>106.66</v>
@@ -1888,16 +1915,16 @@
         <v>4948.7</v>
       </c>
       <c r="AC16">
-        <v>590.3901</v>
+        <v>590.39009999999996</v>
       </c>
       <c r="AD16">
         <v>898.96</v>
       </c>
       <c r="AE16">
-        <v>131.659</v>
+        <v>131.65899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43524</v>
       </c>
@@ -1908,19 +1935,19 @@
         <v>1675.732</v>
       </c>
       <c r="D17">
-        <v>2529.968</v>
+        <v>2529.9679999999998</v>
       </c>
       <c r="E17">
         <v>1337.38</v>
       </c>
       <c r="F17">
-        <v>527.67</v>
+        <v>527.66999999999996</v>
       </c>
       <c r="G17">
         <v>317.4504</v>
       </c>
       <c r="H17">
-        <v>264.96</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="I17">
         <v>1647.02</v>
@@ -1938,7 +1965,7 @@
         <v>1153.95</v>
       </c>
       <c r="N17">
-        <v>1316.0918</v>
+        <v>1316.0917999999999</v>
       </c>
       <c r="O17">
         <v>2391.66</v>
@@ -1959,19 +1986,19 @@
         <v>281.67</v>
       </c>
       <c r="U17">
-        <v>509.2434</v>
+        <v>509.24340000000001</v>
       </c>
       <c r="V17">
         <v>969.67</v>
       </c>
       <c r="W17">
-        <v>1121.4</v>
+        <v>1121.4000000000001</v>
       </c>
       <c r="X17">
         <v>1529</v>
       </c>
       <c r="Y17">
-        <v>1581.699</v>
+        <v>1581.6990000000001</v>
       </c>
       <c r="Z17">
         <v>5809.21</v>
@@ -1983,16 +2010,16 @@
         <v>4953.53</v>
       </c>
       <c r="AC17">
-        <v>592.8278</v>
+        <v>592.82780000000002</v>
       </c>
       <c r="AD17">
-        <v>847.6799999999999</v>
+        <v>847.68</v>
       </c>
       <c r="AE17">
-        <v>123.891</v>
+        <v>123.89100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43553</v>
       </c>
@@ -2003,7 +2030,7 @@
         <v>1751.952</v>
       </c>
       <c r="D18">
-        <v>2637.354</v>
+        <v>2637.3539999999998</v>
       </c>
       <c r="E18">
         <v>1369.2</v>
@@ -2012,7 +2039,7 @@
         <v>548.5</v>
       </c>
       <c r="G18">
-        <v>323.5982</v>
+        <v>323.59820000000002</v>
       </c>
       <c r="H18">
         <v>275.95</v>
@@ -2030,7 +2057,7 @@
         <v>175.41</v>
       </c>
       <c r="M18">
-        <v>1198.84</v>
+        <v>1198.8399999999999</v>
       </c>
       <c r="N18">
         <v>1361.6677</v>
@@ -2054,7 +2081,7 @@
         <v>288.18</v>
       </c>
       <c r="U18">
-        <v>533.1913</v>
+        <v>533.19129999999996</v>
       </c>
       <c r="V18">
         <v>963.37</v>
@@ -2078,7 +2105,7 @@
         <v>5165.88</v>
       </c>
       <c r="AC18">
-        <v>611.4091</v>
+        <v>611.40909999999997</v>
       </c>
       <c r="AD18">
         <v>817.72</v>
@@ -2087,7 +2114,7 @@
         <v>120.309</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43585</v>
       </c>
@@ -2098,7 +2125,7 @@
         <v>1739.65</v>
       </c>
       <c r="D19">
-        <v>2593.713</v>
+        <v>2593.7130000000002</v>
       </c>
       <c r="E19">
         <v>1361.49</v>
@@ -2107,7 +2134,7 @@
         <v>547.02</v>
       </c>
       <c r="G19">
-        <v>319.4954</v>
+        <v>319.49540000000002</v>
       </c>
       <c r="H19">
         <v>271.93</v>
@@ -2125,7 +2152,7 @@
         <v>174.4</v>
       </c>
       <c r="M19">
-        <v>1183.91</v>
+        <v>1183.9100000000001</v>
       </c>
       <c r="N19">
         <v>1354.2335</v>
@@ -2149,7 +2176,7 @@
         <v>287.32</v>
       </c>
       <c r="U19">
-        <v>528.0325</v>
+        <v>528.03250000000003</v>
       </c>
       <c r="V19">
         <v>976.71</v>
@@ -2164,16 +2191,16 @@
         <v>1634.65</v>
       </c>
       <c r="Z19">
-        <v>6243.457</v>
+        <v>6243.4570000000003</v>
       </c>
       <c r="AA19">
         <v>109.69</v>
       </c>
       <c r="AB19">
-        <v>5116.61</v>
+        <v>5116.6099999999997</v>
       </c>
       <c r="AC19">
-        <v>608.1788</v>
+        <v>608.17880000000002</v>
       </c>
       <c r="AD19">
         <v>831.39</v>
@@ -2182,7 +2209,7 @@
         <v>121.883</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43616</v>
       </c>
@@ -2190,10 +2217,10 @@
         <v>122.34</v>
       </c>
       <c r="C20">
-        <v>1755.542</v>
+        <v>1755.5419999999999</v>
       </c>
       <c r="D20">
-        <v>2653.396</v>
+        <v>2653.3960000000002</v>
       </c>
       <c r="E20">
         <v>1355.58</v>
@@ -2202,7 +2229,7 @@
         <v>525.97</v>
       </c>
       <c r="G20">
-        <v>312.2832</v>
+        <v>312.28320000000002</v>
       </c>
       <c r="H20">
         <v>271.74</v>
@@ -2220,7 +2247,7 @@
         <v>175.97</v>
       </c>
       <c r="M20">
-        <v>1177.38</v>
+        <v>1177.3800000000001</v>
       </c>
       <c r="N20">
         <v>1355.377</v>
@@ -2250,13 +2277,13 @@
         <v>907.87</v>
       </c>
       <c r="W20">
-        <v>1159.61</v>
+        <v>1159.6099999999999</v>
       </c>
       <c r="X20">
         <v>1547.84</v>
       </c>
       <c r="Y20">
-        <v>1647.544</v>
+        <v>1647.5440000000001</v>
       </c>
       <c r="Z20">
         <v>5750.924</v>
@@ -2265,10 +2292,10 @@
         <v>108.49</v>
       </c>
       <c r="AB20">
-        <v>5065.31</v>
+        <v>5065.3100000000004</v>
       </c>
       <c r="AC20">
-        <v>607.0309</v>
+        <v>607.03089999999997</v>
       </c>
       <c r="AD20">
         <v>880.99</v>
@@ -2277,7 +2304,7 @@
         <v>119.509</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43644</v>
       </c>
@@ -2288,19 +2315,19 @@
         <v>1790.373</v>
       </c>
       <c r="D21">
-        <v>2776.403</v>
+        <v>2776.4029999999998</v>
       </c>
       <c r="E21">
         <v>1376.93</v>
       </c>
       <c r="F21">
-        <v>523.67</v>
+        <v>523.66999999999996</v>
       </c>
       <c r="G21">
-        <v>316.7112</v>
+        <v>316.71120000000002</v>
       </c>
       <c r="H21">
-        <v>275.97</v>
+        <v>275.97000000000003</v>
       </c>
       <c r="I21">
         <v>1714.17</v>
@@ -2333,28 +2360,28 @@
         <v>1326.31</v>
       </c>
       <c r="S21">
-        <v>1802.909</v>
+        <v>1802.9090000000001</v>
       </c>
       <c r="T21">
         <v>287.88</v>
       </c>
       <c r="U21">
-        <v>539.4101000000001</v>
+        <v>539.41010000000006</v>
       </c>
       <c r="V21">
         <v>921.59</v>
       </c>
       <c r="W21">
-        <v>1203.89</v>
+        <v>1203.8900000000001</v>
       </c>
       <c r="X21">
         <v>1561.48</v>
       </c>
       <c r="Y21">
-        <v>1656.219</v>
+        <v>1656.2190000000001</v>
       </c>
       <c r="Z21">
-        <v>5864.475</v>
+        <v>5864.4750000000004</v>
       </c>
       <c r="AA21">
         <v>107.97</v>
@@ -2369,10 +2396,10 @@
         <v>1013.12</v>
       </c>
       <c r="AE21">
-        <v>121.891</v>
+        <v>121.89100000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43677</v>
       </c>
@@ -2383,7 +2410,7 @@
         <v>1810.268</v>
       </c>
       <c r="D22">
-        <v>2801.742</v>
+        <v>2801.7420000000002</v>
       </c>
       <c r="E22">
         <v>1382.63</v>
@@ -2410,13 +2437,13 @@
         <v>181.2</v>
       </c>
       <c r="M22">
-        <v>1202.14</v>
+        <v>1202.1400000000001</v>
       </c>
       <c r="N22">
-        <v>1385.7785</v>
+        <v>1385.7784999999999</v>
       </c>
       <c r="O22">
-        <v>2583.45</v>
+        <v>2583.4499999999998</v>
       </c>
       <c r="P22">
         <v>1569.86</v>
@@ -2428,16 +2455,16 @@
         <v>1370.24</v>
       </c>
       <c r="S22">
-        <v>1814.708</v>
+        <v>1814.7080000000001</v>
       </c>
       <c r="T22">
-        <v>292.16</v>
+        <v>292.16000000000003</v>
       </c>
       <c r="U22">
-        <v>547.4286</v>
+        <v>547.42859999999996</v>
       </c>
       <c r="V22">
-        <v>869.8200000000001</v>
+        <v>869.82</v>
       </c>
       <c r="W22">
         <v>1210.43</v>
@@ -2449,7 +2476,7 @@
         <v>1681.432</v>
       </c>
       <c r="Z22">
-        <v>5764.642</v>
+        <v>5764.6419999999998</v>
       </c>
       <c r="AA22">
         <v>108.22</v>
@@ -2458,16 +2485,16 @@
         <v>5224.68</v>
       </c>
       <c r="AC22">
-        <v>622.275</v>
+        <v>622.27499999999998</v>
       </c>
       <c r="AD22">
-        <v>1100.39</v>
+        <v>1100.3900000000001</v>
       </c>
       <c r="AE22">
-        <v>120.433</v>
+        <v>120.43300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43707</v>
       </c>
@@ -2484,7 +2511,7 @@
         <v>1416.04</v>
       </c>
       <c r="F23">
-        <v>527.4400000000001</v>
+        <v>527.44000000000005</v>
       </c>
       <c r="G23">
         <v>313.0455</v>
@@ -2523,16 +2550,16 @@
         <v>1423.29</v>
       </c>
       <c r="S23">
-        <v>1853.284</v>
+        <v>1853.2840000000001</v>
       </c>
       <c r="T23">
         <v>298.23</v>
       </c>
       <c r="U23">
-        <v>575.1493</v>
+        <v>575.14930000000004</v>
       </c>
       <c r="V23">
-        <v>873.6799999999999</v>
+        <v>873.68</v>
       </c>
       <c r="W23">
         <v>1233.98</v>
@@ -2541,10 +2568,10 @@
         <v>1617.53</v>
       </c>
       <c r="Y23">
-        <v>1747.637</v>
+        <v>1747.6369999999999</v>
       </c>
       <c r="Z23">
-        <v>5331.109</v>
+        <v>5331.1090000000004</v>
       </c>
       <c r="AA23">
         <v>112.42</v>
@@ -2553,7 +2580,7 @@
         <v>5281.11</v>
       </c>
       <c r="AC23">
-        <v>638.1536</v>
+        <v>638.15359999999998</v>
       </c>
       <c r="AD23">
         <v>1094.53</v>
@@ -2562,7 +2589,7 @@
         <v>115.53</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43738</v>
       </c>
@@ -2573,7 +2600,7 @@
         <v>1901.674</v>
       </c>
       <c r="D24">
-        <v>2871.483</v>
+        <v>2871.4830000000002</v>
       </c>
       <c r="E24">
         <v>1449.35</v>
@@ -2582,7 +2609,7 @@
         <v>565.84</v>
       </c>
       <c r="G24">
-        <v>331.0234</v>
+        <v>331.02339999999998</v>
       </c>
       <c r="H24">
         <v>286.61</v>
@@ -2603,7 +2630,7 @@
         <v>1240.03</v>
       </c>
       <c r="N24">
-        <v>1449.939</v>
+        <v>1449.9390000000001</v>
       </c>
       <c r="O24">
         <v>2708.32</v>
@@ -2624,7 +2651,7 @@
         <v>304.76</v>
       </c>
       <c r="U24">
-        <v>582.2671</v>
+        <v>582.26710000000003</v>
       </c>
       <c r="V24">
         <v>938.38</v>
@@ -2639,7 +2666,7 @@
         <v>1769.222</v>
       </c>
       <c r="Z24">
-        <v>5416.014</v>
+        <v>5416.0140000000001</v>
       </c>
       <c r="AA24">
         <v>117.57</v>
@@ -2648,7 +2675,7 @@
         <v>5379.52</v>
       </c>
       <c r="AC24">
-        <v>655.6180000000001</v>
+        <v>655.61800000000005</v>
       </c>
       <c r="AD24">
         <v>1102.81</v>
@@ -2657,7 +2684,7 @@
         <v>115.096</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43769</v>
       </c>
@@ -2674,7 +2701,7 @@
         <v>1472.98</v>
       </c>
       <c r="F25">
-        <v>588.8200000000001</v>
+        <v>588.82000000000005</v>
       </c>
       <c r="G25">
         <v>338.8125</v>
@@ -2719,13 +2746,13 @@
         <v>307.68</v>
       </c>
       <c r="U25">
-        <v>584.8084</v>
+        <v>584.80840000000001</v>
       </c>
       <c r="V25">
         <v>1019.65</v>
       </c>
       <c r="W25">
-        <v>1269.65</v>
+        <v>1269.6500000000001</v>
       </c>
       <c r="X25">
         <v>1669.1</v>
@@ -2734,7 +2761,7 @@
         <v>1785.162</v>
       </c>
       <c r="Z25">
-        <v>5569.591</v>
+        <v>5569.5910000000003</v>
       </c>
       <c r="AA25">
         <v>121.55</v>
@@ -2752,7 +2779,7 @@
         <v>114.074</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43798</v>
       </c>
@@ -2763,7 +2790,7 @@
         <v>1893.096</v>
       </c>
       <c r="D26">
-        <v>2909.948</v>
+        <v>2909.9479999999999</v>
       </c>
       <c r="E26">
         <v>1449.92</v>
@@ -2772,7 +2799,7 @@
         <v>591.47</v>
       </c>
       <c r="G26">
-        <v>335.4632</v>
+        <v>335.46319999999997</v>
       </c>
       <c r="H26">
         <v>286.63</v>
@@ -2790,10 +2817,10 @@
         <v>186.41</v>
       </c>
       <c r="M26">
-        <v>1253.13</v>
+        <v>1253.1300000000001</v>
       </c>
       <c r="N26">
-        <v>1453.679</v>
+        <v>1453.6790000000001</v>
       </c>
       <c r="O26">
         <v>2666.52</v>
@@ -2808,19 +2835,19 @@
         <v>1471.93</v>
       </c>
       <c r="S26">
-        <v>1895.295</v>
+        <v>1895.2950000000001</v>
       </c>
       <c r="T26">
         <v>302.67</v>
       </c>
       <c r="U26">
-        <v>569.8461</v>
+        <v>569.84609999999998</v>
       </c>
       <c r="V26">
         <v>1023.65</v>
       </c>
       <c r="W26">
-        <v>1243.89</v>
+        <v>1243.8900000000001</v>
       </c>
       <c r="X26">
         <v>1642.76</v>
@@ -2829,7 +2856,7 @@
         <v>1752.12</v>
       </c>
       <c r="Z26">
-        <v>5484.583</v>
+        <v>5484.5829999999996</v>
       </c>
       <c r="AA26">
         <v>124.37</v>
@@ -2838,27 +2865,27 @@
         <v>5464.84</v>
       </c>
       <c r="AC26">
-        <v>659.6974</v>
+        <v>659.69740000000002</v>
       </c>
       <c r="AD26">
         <v>1182.68</v>
       </c>
       <c r="AE26">
-        <v>114.061</v>
+        <v>114.06100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43830</v>
       </c>
       <c r="B27">
-        <v>133.92</v>
+        <v>133.91999999999999</v>
       </c>
       <c r="C27">
-        <v>1901.574</v>
+        <v>1901.5740000000001</v>
       </c>
       <c r="D27">
-        <v>2892.265</v>
+        <v>2892.2649999999999</v>
       </c>
       <c r="E27">
         <v>1440.87</v>
@@ -2867,10 +2894,10 @@
         <v>595.74</v>
       </c>
       <c r="G27">
-        <v>337.2798</v>
+        <v>337.27980000000002</v>
       </c>
       <c r="H27">
-        <v>289.9</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="I27">
         <v>1781.85</v>
@@ -2888,7 +2915,7 @@
         <v>1272.51</v>
       </c>
       <c r="N27">
-        <v>1456.853</v>
+        <v>1456.8530000000001</v>
       </c>
       <c r="O27">
         <v>2675.53</v>
@@ -2903,13 +2930,13 @@
         <v>1435.61</v>
       </c>
       <c r="S27">
-        <v>1915.525</v>
+        <v>1915.5250000000001</v>
       </c>
       <c r="T27">
         <v>298.14</v>
       </c>
       <c r="U27">
-        <v>573.8257</v>
+        <v>573.82569999999998</v>
       </c>
       <c r="V27">
         <v>1062.92</v>
@@ -2924,7 +2951,7 @@
         <v>1751.183</v>
       </c>
       <c r="Z27">
-        <v>6063.303</v>
+        <v>6063.3029999999999</v>
       </c>
       <c r="AA27">
         <v>129.01</v>
@@ -2933,7 +2960,7 @@
         <v>5608.6</v>
       </c>
       <c r="AC27">
-        <v>653.0579</v>
+        <v>653.05790000000002</v>
       </c>
       <c r="AD27">
         <v>1388.86</v>
@@ -2942,7 +2969,7 @@
         <v>110.886</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43861</v>
       </c>
@@ -2953,7 +2980,7 @@
         <v>1928.482</v>
       </c>
       <c r="D28">
-        <v>2952.713</v>
+        <v>2952.7130000000002</v>
       </c>
       <c r="E28">
         <v>1445.39</v>
@@ -2962,7 +2989,7 @@
         <v>585.73</v>
       </c>
       <c r="G28">
-        <v>325.5807</v>
+        <v>325.58069999999998</v>
       </c>
       <c r="H28">
         <v>293.37</v>
@@ -2983,7 +3010,7 @@
         <v>1275.69</v>
       </c>
       <c r="N28">
-        <v>1470.159</v>
+        <v>1470.1590000000001</v>
       </c>
       <c r="O28">
         <v>2726.42</v>
@@ -3004,22 +3031,22 @@
         <v>299.02</v>
       </c>
       <c r="U28">
-        <v>589.7078</v>
+        <v>589.70780000000002</v>
       </c>
       <c r="V28">
         <v>1018.58</v>
       </c>
       <c r="W28">
-        <v>1249.64</v>
+        <v>1249.6400000000001</v>
       </c>
       <c r="X28">
         <v>1624.76</v>
       </c>
       <c r="Y28">
-        <v>1774.235</v>
+        <v>1774.2349999999999</v>
       </c>
       <c r="Z28">
-        <v>5630.034</v>
+        <v>5630.0339999999997</v>
       </c>
       <c r="AA28">
         <v>126.39</v>
@@ -3028,16 +3055,16 @@
         <v>5586.29</v>
       </c>
       <c r="AC28">
-        <v>661.2385</v>
+        <v>661.23850000000004</v>
       </c>
       <c r="AD28">
         <v>1442.44</v>
       </c>
       <c r="AE28">
-        <v>107.165</v>
+        <v>107.16500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43889</v>
       </c>
@@ -3045,10 +3072,10 @@
         <v>122.25</v>
       </c>
       <c r="C29">
-        <v>1791.445</v>
+        <v>1791.4449999999999</v>
       </c>
       <c r="D29">
-        <v>2723.688</v>
+        <v>2723.6880000000001</v>
       </c>
       <c r="E29">
         <v>1327.36</v>
@@ -3057,7 +3084,7 @@
         <v>528.63</v>
       </c>
       <c r="G29">
-        <v>289.9791</v>
+        <v>289.97910000000002</v>
       </c>
       <c r="H29">
         <v>271.95</v>
@@ -3099,7 +3126,7 @@
         <v>273.23</v>
       </c>
       <c r="U29">
-        <v>548.3521</v>
+        <v>548.35209999999995</v>
       </c>
       <c r="V29">
         <v>909.89</v>
@@ -3114,7 +3141,7 @@
         <v>1648.39</v>
       </c>
       <c r="Z29">
-        <v>5495.255</v>
+        <v>5495.2550000000001</v>
       </c>
       <c r="AA29">
         <v>113.34</v>
@@ -3123,16 +3150,16 @@
         <v>5216.32</v>
       </c>
       <c r="AC29">
-        <v>610.4631000000001</v>
+        <v>610.46310000000005</v>
       </c>
       <c r="AD29">
         <v>1289.77</v>
       </c>
       <c r="AE29">
-        <v>90.154</v>
+        <v>90.153999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43921</v>
       </c>
@@ -3140,10 +3167,10 @@
         <v>100.29</v>
       </c>
       <c r="C30">
-        <v>1457.459</v>
+        <v>1457.4590000000001</v>
       </c>
       <c r="D30">
-        <v>2053.026</v>
+        <v>2053.0259999999998</v>
       </c>
       <c r="E30">
         <v>1032.81</v>
@@ -3152,7 +3179,7 @@
         <v>311.13</v>
       </c>
       <c r="G30">
-        <v>171.1733</v>
+        <v>171.17330000000001</v>
       </c>
       <c r="H30">
         <v>221.86</v>
@@ -3164,13 +3191,13 @@
         <v>1103.18</v>
       </c>
       <c r="K30">
-        <v>1172.84</v>
+        <v>1172.8399999999999</v>
       </c>
       <c r="L30">
-        <v>150.61</v>
+        <v>150.61000000000001</v>
       </c>
       <c r="M30">
-        <v>945.4299999999999</v>
+        <v>945.43</v>
       </c>
       <c r="N30">
         <v>1068.287</v>
@@ -3179,7 +3206,7 @@
         <v>2129.98</v>
       </c>
       <c r="P30">
-        <v>1168.86</v>
+        <v>1168.8599999999999</v>
       </c>
       <c r="Q30">
         <v>1470.62</v>
@@ -3188,13 +3215,13 @@
         <v>1035.96</v>
       </c>
       <c r="S30">
-        <v>1426.563</v>
+        <v>1426.5630000000001</v>
       </c>
       <c r="T30">
         <v>210.89</v>
       </c>
       <c r="U30">
-        <v>449.5869</v>
+        <v>449.58690000000001</v>
       </c>
       <c r="V30">
         <v>628</v>
@@ -3203,13 +3230,13 @@
         <v>880.35</v>
       </c>
       <c r="X30">
-        <v>1140.14</v>
+        <v>1140.1400000000001</v>
       </c>
       <c r="Y30">
-        <v>1334.497</v>
+        <v>1334.4970000000001</v>
       </c>
       <c r="Z30">
-        <v>5141.059</v>
+        <v>5141.0590000000002</v>
       </c>
       <c r="AA30">
         <v>82.55</v>
@@ -3224,10 +3251,10 @@
         <v>757.48</v>
       </c>
       <c r="AE30">
-        <v>55.896</v>
+        <v>55.896000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43951</v>
       </c>
@@ -3235,10 +3262,10 @@
         <v>108.33</v>
       </c>
       <c r="C31">
-        <v>1588.842</v>
+        <v>1588.8420000000001</v>
       </c>
       <c r="D31">
-        <v>2211.414</v>
+        <v>2211.4140000000002</v>
       </c>
       <c r="E31">
         <v>1110.74</v>
@@ -3247,7 +3274,7 @@
         <v>357.11</v>
       </c>
       <c r="G31">
-        <v>195.8251</v>
+        <v>195.82509999999999</v>
       </c>
       <c r="H31">
         <v>239.8</v>
@@ -3259,7 +3286,7 @@
         <v>1201.94</v>
       </c>
       <c r="K31">
-        <v>1266.09</v>
+        <v>1266.0899999999999</v>
       </c>
       <c r="L31">
         <v>164.66</v>
@@ -3274,7 +3301,7 @@
         <v>2326.94</v>
       </c>
       <c r="P31">
-        <v>1257.4</v>
+        <v>1257.4000000000001</v>
       </c>
       <c r="Q31">
         <v>1454.31</v>
@@ -3289,7 +3316,7 @@
         <v>227.06</v>
       </c>
       <c r="U31">
-        <v>484.215</v>
+        <v>484.21499999999997</v>
       </c>
       <c r="V31">
         <v>673.15</v>
@@ -3304,25 +3331,25 @@
         <v>1445.816</v>
       </c>
       <c r="Z31">
-        <v>5365.975</v>
+        <v>5365.9750000000004</v>
       </c>
       <c r="AA31">
-        <v>88.43000000000001</v>
+        <v>88.43</v>
       </c>
       <c r="AB31">
         <v>4487</v>
       </c>
       <c r="AC31">
-        <v>507.3446</v>
+        <v>507.34460000000001</v>
       </c>
       <c r="AD31">
         <v>814.22</v>
       </c>
       <c r="AE31">
-        <v>57.951</v>
+        <v>57.951000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43980</v>
       </c>
@@ -3330,10 +3357,10 @@
         <v>106.59</v>
       </c>
       <c r="C32">
-        <v>1618.138</v>
+        <v>1618.1379999999999</v>
       </c>
       <c r="D32">
-        <v>2327.311</v>
+        <v>2327.3110000000001</v>
       </c>
       <c r="E32">
         <v>1106.01</v>
@@ -3342,7 +3369,7 @@
         <v>346.44</v>
       </c>
       <c r="G32">
-        <v>204.1715</v>
+        <v>204.17150000000001</v>
       </c>
       <c r="H32">
         <v>243.57</v>
@@ -3354,22 +3381,22 @@
         <v>1220.19</v>
       </c>
       <c r="K32">
-        <v>1288.6</v>
+        <v>1288.5999999999999</v>
       </c>
       <c r="L32">
         <v>167.52</v>
       </c>
       <c r="M32">
-        <v>1028.89</v>
+        <v>1028.8900000000001</v>
       </c>
       <c r="N32">
-        <v>1175.753</v>
+        <v>1175.7529999999999</v>
       </c>
       <c r="O32">
-        <v>2374.99</v>
+        <v>2374.9899999999998</v>
       </c>
       <c r="P32">
-        <v>1266.66</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="Q32">
         <v>1573.29</v>
@@ -3384,13 +3411,13 @@
         <v>225.13</v>
       </c>
       <c r="U32">
-        <v>486.3529</v>
+        <v>486.35289999999998</v>
       </c>
       <c r="V32">
         <v>646.9</v>
       </c>
       <c r="W32">
-        <v>974.4400000000001</v>
+        <v>974.44</v>
       </c>
       <c r="X32">
         <v>1216.19</v>
@@ -3402,22 +3429,22 @@
         <v>5130.951</v>
       </c>
       <c r="AA32">
-        <v>87.81999999999999</v>
+        <v>87.82</v>
       </c>
       <c r="AB32">
-        <v>4530.35</v>
+        <v>4530.3500000000004</v>
       </c>
       <c r="AC32">
-        <v>511.9618</v>
+        <v>511.96179999999998</v>
       </c>
       <c r="AD32">
-        <v>822.5700000000001</v>
+        <v>822.57</v>
       </c>
       <c r="AE32">
-        <v>57.047</v>
+        <v>57.046999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44012</v>
       </c>
@@ -3425,7 +3452,7 @@
         <v>112.06</v>
       </c>
       <c r="C33">
-        <v>1642.051</v>
+        <v>1642.0509999999999</v>
       </c>
       <c r="D33">
         <v>2347.739</v>
@@ -3437,7 +3464,7 @@
         <v>348.35</v>
       </c>
       <c r="G33">
-        <v>214.4389</v>
+        <v>214.43889999999999</v>
       </c>
       <c r="H33">
         <v>247.07</v>
@@ -3446,7 +3473,7 @@
         <v>1513.47</v>
       </c>
       <c r="J33">
-        <v>1245.86</v>
+        <v>1245.8599999999999</v>
       </c>
       <c r="K33">
         <v>1345.81</v>
@@ -3458,7 +3485,7 @@
         <v>1045.45</v>
       </c>
       <c r="N33">
-        <v>1192.459</v>
+        <v>1192.4590000000001</v>
       </c>
       <c r="O33">
         <v>2404.02</v>
@@ -3488,31 +3515,31 @@
         <v>975.08</v>
       </c>
       <c r="X33">
-        <v>1232.15</v>
+        <v>1232.1500000000001</v>
       </c>
       <c r="Y33">
-        <v>1495.821</v>
+        <v>1495.8209999999999</v>
       </c>
       <c r="Z33">
-        <v>5381.546</v>
+        <v>5381.5460000000003</v>
       </c>
       <c r="AA33">
-        <v>87.93000000000001</v>
+        <v>87.93</v>
       </c>
       <c r="AB33">
-        <v>4645.69</v>
+        <v>4645.6899999999996</v>
       </c>
       <c r="AC33">
-        <v>522.3212</v>
+        <v>522.32119999999998</v>
       </c>
       <c r="AD33">
         <v>975.25</v>
       </c>
       <c r="AE33">
-        <v>64.52500000000001</v>
+        <v>64.525000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44043</v>
       </c>
@@ -3523,7 +3550,7 @@
         <v>1712.644</v>
       </c>
       <c r="D34">
-        <v>2426.464</v>
+        <v>2426.4639999999999</v>
       </c>
       <c r="E34">
         <v>1166.2</v>
@@ -3532,10 +3559,10 @@
         <v>332.99</v>
       </c>
       <c r="G34">
-        <v>200.9048</v>
+        <v>200.90479999999999</v>
       </c>
       <c r="H34">
-        <v>256.1</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="I34">
         <v>1551.11</v>
@@ -3550,13 +3577,13 @@
         <v>175.77</v>
       </c>
       <c r="M34">
-        <v>1071.86</v>
+        <v>1071.8599999999999</v>
       </c>
       <c r="N34">
-        <v>1238.974</v>
+        <v>1238.9739999999999</v>
       </c>
       <c r="O34">
-        <v>2510.32</v>
+        <v>2510.3200000000002</v>
       </c>
       <c r="P34">
         <v>1329.98</v>
@@ -3568,13 +3595,13 @@
         <v>1113.22</v>
       </c>
       <c r="S34">
-        <v>1647.237</v>
+        <v>1647.2370000000001</v>
       </c>
       <c r="T34">
         <v>235.04</v>
       </c>
       <c r="U34">
-        <v>519.4748</v>
+        <v>519.47479999999996</v>
       </c>
       <c r="V34">
         <v>685.85</v>
@@ -3586,28 +3613,28 @@
         <v>1270.43</v>
       </c>
       <c r="Y34">
-        <v>1555.517</v>
+        <v>1555.5170000000001</v>
       </c>
       <c r="Z34">
-        <v>5761.162</v>
+        <v>5761.1620000000003</v>
       </c>
       <c r="AA34">
-        <v>87.06999999999999</v>
+        <v>87.07</v>
       </c>
       <c r="AB34">
         <v>4810.42</v>
       </c>
       <c r="AC34">
-        <v>537.576</v>
+        <v>537.57600000000002</v>
       </c>
       <c r="AD34">
         <v>1045.54</v>
       </c>
       <c r="AE34">
-        <v>62.705</v>
+        <v>62.704999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44074</v>
       </c>
@@ -3618,7 +3645,7 @@
         <v>1724.079</v>
       </c>
       <c r="D35">
-        <v>2571.457</v>
+        <v>2571.4569999999999</v>
       </c>
       <c r="E35">
         <v>1178.57</v>
@@ -3636,7 +3663,7 @@
         <v>1590.36</v>
       </c>
       <c r="J35">
-        <v>1293.41</v>
+        <v>1293.4100000000001</v>
       </c>
       <c r="K35">
         <v>1410.14</v>
@@ -3663,25 +3690,25 @@
         <v>1118.51</v>
       </c>
       <c r="S35">
-        <v>1684.082</v>
+        <v>1684.0820000000001</v>
       </c>
       <c r="T35">
         <v>236.25</v>
       </c>
       <c r="U35">
-        <v>520.8887999999999</v>
+        <v>520.88879999999995</v>
       </c>
       <c r="V35">
         <v>695.38</v>
       </c>
       <c r="W35">
-        <v>1055.37</v>
+        <v>1055.3699999999999</v>
       </c>
       <c r="X35">
-        <v>1276.64</v>
+        <v>1276.6400000000001</v>
       </c>
       <c r="Y35">
-        <v>1563.285</v>
+        <v>1563.2850000000001</v>
       </c>
       <c r="Z35">
         <v>5885.433</v>
@@ -3693,16 +3720,16 @@
         <v>4924.82</v>
       </c>
       <c r="AC35">
-        <v>546.0555000000001</v>
+        <v>546.05550000000005</v>
       </c>
       <c r="AD35">
         <v>962.8</v>
       </c>
       <c r="AE35">
-        <v>57.517</v>
+        <v>57.517000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44104</v>
       </c>
@@ -3713,7 +3740,7 @@
         <v>1678.549</v>
       </c>
       <c r="D36">
-        <v>2535.406</v>
+        <v>2535.4059999999999</v>
       </c>
       <c r="E36">
         <v>1125.68</v>
@@ -3740,7 +3767,7 @@
         <v>171.18</v>
       </c>
       <c r="M36">
-        <v>1067.36</v>
+        <v>1067.3599999999999</v>
       </c>
       <c r="N36">
         <v>1211.682</v>
@@ -3755,22 +3782,22 @@
         <v>1629.53</v>
       </c>
       <c r="R36">
-        <v>1104.6</v>
+        <v>1104.5999999999999</v>
       </c>
       <c r="S36">
-        <v>1638.109</v>
+        <v>1638.1089999999999</v>
       </c>
       <c r="T36">
         <v>227.53</v>
       </c>
       <c r="U36">
-        <v>509.261</v>
+        <v>509.26100000000002</v>
       </c>
       <c r="V36">
         <v>638.47</v>
       </c>
       <c r="W36">
-        <v>1039.09</v>
+        <v>1039.0899999999999</v>
       </c>
       <c r="X36">
         <v>1229.54</v>
@@ -3779,7 +3806,7 @@
         <v>1520.297</v>
       </c>
       <c r="Z36">
-        <v>5582.818</v>
+        <v>5582.8180000000002</v>
       </c>
       <c r="AA36">
         <v>85.72</v>
@@ -3788,16 +3815,16 @@
         <v>4793.71</v>
       </c>
       <c r="AC36">
-        <v>530.8533</v>
+        <v>530.85329999999999</v>
       </c>
       <c r="AD36">
         <v>885.71</v>
       </c>
       <c r="AE36">
-        <v>55.351</v>
+        <v>55.350999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44134</v>
       </c>
@@ -3808,7 +3835,7 @@
         <v>1618.249</v>
       </c>
       <c r="D37">
-        <v>2431.535</v>
+        <v>2431.5349999999999</v>
       </c>
       <c r="E37">
         <v>1093.27</v>
@@ -3817,7 +3844,7 @@
         <v>328.19</v>
       </c>
       <c r="G37">
-        <v>193.7857</v>
+        <v>193.78569999999999</v>
       </c>
       <c r="H37">
         <v>245.38</v>
@@ -3853,13 +3880,13 @@
         <v>1075.32</v>
       </c>
       <c r="S37">
-        <v>1579.734</v>
+        <v>1579.7339999999999</v>
       </c>
       <c r="T37">
         <v>221.21</v>
       </c>
       <c r="U37">
-        <v>492.6108</v>
+        <v>492.61079999999998</v>
       </c>
       <c r="V37">
         <v>609.21</v>
@@ -3871,28 +3898,28 @@
         <v>1195.29</v>
       </c>
       <c r="Y37">
-        <v>1469.562</v>
+        <v>1469.5619999999999</v>
       </c>
       <c r="Z37">
-        <v>5317.413</v>
+        <v>5317.4129999999996</v>
       </c>
       <c r="AA37">
-        <v>82.20999999999999</v>
+        <v>82.21</v>
       </c>
       <c r="AB37">
-        <v>4639.98</v>
+        <v>4639.9799999999996</v>
       </c>
       <c r="AC37">
-        <v>515.2446</v>
+        <v>515.24459999999999</v>
       </c>
       <c r="AD37">
         <v>863.71</v>
       </c>
       <c r="AE37">
-        <v>49.602</v>
+        <v>49.601999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44165</v>
       </c>
@@ -3903,7 +3930,7 @@
         <v>1758.126</v>
       </c>
       <c r="D38">
-        <v>2673.668</v>
+        <v>2673.6680000000001</v>
       </c>
       <c r="E38">
         <v>1219.3</v>
@@ -3912,7 +3939,7 @@
         <v>390.95</v>
       </c>
       <c r="G38">
-        <v>267.034</v>
+        <v>267.03399999999999</v>
       </c>
       <c r="H38">
         <v>268.05</v>
@@ -3933,10 +3960,10 @@
         <v>1146.03</v>
       </c>
       <c r="N38">
-        <v>1280.594</v>
+        <v>1280.5940000000001</v>
       </c>
       <c r="O38">
-        <v>2512.3</v>
+        <v>2512.3000000000002</v>
       </c>
       <c r="P38">
         <v>1415.82</v>
@@ -3945,7 +3972,7 @@
         <v>1600.89</v>
       </c>
       <c r="R38">
-        <v>1177.41</v>
+        <v>1177.4100000000001</v>
       </c>
       <c r="S38">
         <v>1753.479</v>
@@ -3954,7 +3981,7 @@
         <v>247.95</v>
       </c>
       <c r="U38">
-        <v>526.5626999999999</v>
+        <v>526.56269999999995</v>
       </c>
       <c r="V38">
         <v>755.14</v>
@@ -3966,10 +3993,10 @@
         <v>1343.5</v>
       </c>
       <c r="Y38">
-        <v>1613.668</v>
+        <v>1613.6679999999999</v>
       </c>
       <c r="Z38">
-        <v>5624.216</v>
+        <v>5624.2160000000003</v>
       </c>
       <c r="AA38">
         <v>100.45</v>
@@ -3978,7 +4005,7 @@
         <v>5159.66</v>
       </c>
       <c r="AC38">
-        <v>571.2888</v>
+        <v>571.28880000000004</v>
       </c>
       <c r="AD38">
         <v>1005.95</v>
@@ -3987,7 +4014,7 @@
         <v>58.887</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44196</v>
       </c>
@@ -3995,10 +4022,10 @@
         <v>125.4</v>
       </c>
       <c r="C39">
-        <v>1801.426</v>
+        <v>1801.4259999999999</v>
       </c>
       <c r="D39">
-        <v>2820.899</v>
+        <v>2820.8989999999999</v>
       </c>
       <c r="E39">
         <v>1248.23</v>
@@ -4007,10 +4034,10 @@
         <v>397.16</v>
       </c>
       <c r="G39">
-        <v>277.579</v>
+        <v>277.57900000000001</v>
       </c>
       <c r="H39">
-        <v>274.59</v>
+        <v>274.58999999999997</v>
       </c>
       <c r="I39">
         <v>1651.8</v>
@@ -4025,10 +4052,10 @@
         <v>178.33</v>
       </c>
       <c r="M39">
-        <v>1176.37</v>
+        <v>1176.3699999999999</v>
       </c>
       <c r="N39">
-        <v>1315.792</v>
+        <v>1315.7919999999999</v>
       </c>
       <c r="O39">
         <v>2546.13</v>
@@ -4043,13 +4070,13 @@
         <v>1196.32</v>
       </c>
       <c r="S39">
-        <v>1804.622</v>
+        <v>1804.6220000000001</v>
       </c>
       <c r="T39">
         <v>254.49</v>
       </c>
       <c r="U39">
-        <v>536.6398</v>
+        <v>536.63980000000004</v>
       </c>
       <c r="V39">
         <v>800.75</v>
@@ -4064,7 +4091,7 @@
         <v>1656.115</v>
       </c>
       <c r="Z39">
-        <v>5195.543</v>
+        <v>5195.5429999999997</v>
       </c>
       <c r="AA39">
         <v>103.98</v>
@@ -4073,7 +4100,7 @@
         <v>5300.77</v>
       </c>
       <c r="AC39">
-        <v>589.5457</v>
+        <v>589.54570000000001</v>
       </c>
       <c r="AD39">
         <v>1051.82</v>
@@ -4082,7 +4109,7 @@
         <v>65.881</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44225</v>
       </c>
@@ -4093,7 +4120,7 @@
         <v>1798.539</v>
       </c>
       <c r="D40">
-        <v>2804.238</v>
+        <v>2804.2379999999998</v>
       </c>
       <c r="E40">
         <v>1247.98</v>
@@ -4102,7 +4129,7 @@
         <v>395.83</v>
       </c>
       <c r="G40">
-        <v>295.5631</v>
+        <v>295.56310000000002</v>
       </c>
       <c r="H40">
         <v>272.12</v>
@@ -4123,10 +4150,10 @@
         <v>1172.19</v>
       </c>
       <c r="N40">
-        <v>1310.092</v>
+        <v>1310.0920000000001</v>
       </c>
       <c r="O40">
-        <v>2542.22</v>
+        <v>2542.2199999999998</v>
       </c>
       <c r="P40">
         <v>1461.4</v>
@@ -4138,13 +4165,13 @@
         <v>1204.76</v>
       </c>
       <c r="S40">
-        <v>1793.678</v>
+        <v>1793.6780000000001</v>
       </c>
       <c r="T40">
         <v>253.67</v>
       </c>
       <c r="U40">
-        <v>535.3882</v>
+        <v>535.38819999999998</v>
       </c>
       <c r="V40">
         <v>793.46</v>
@@ -4156,10 +4183,10 @@
         <v>1373.47</v>
       </c>
       <c r="Y40">
-        <v>1652.469</v>
+        <v>1652.4690000000001</v>
       </c>
       <c r="Z40">
-        <v>4833.043</v>
+        <v>4833.0429999999997</v>
       </c>
       <c r="AA40">
         <v>104.4</v>
@@ -4168,27 +4195,27 @@
         <v>5250.86</v>
       </c>
       <c r="AC40">
-        <v>590.1536</v>
+        <v>590.15359999999998</v>
       </c>
       <c r="AD40">
         <v>977.92</v>
       </c>
       <c r="AE40">
-        <v>63.566</v>
+        <v>63.566000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44253</v>
       </c>
       <c r="B41">
-        <v>130.39</v>
+        <v>130.38999999999999</v>
       </c>
       <c r="C41">
         <v>1814.249</v>
       </c>
       <c r="D41">
-        <v>2830.934</v>
+        <v>2830.9340000000002</v>
       </c>
       <c r="E41">
         <v>1293.94</v>
@@ -4197,10 +4224,10 @@
         <v>413.76</v>
       </c>
       <c r="G41">
-        <v>312.6779</v>
+        <v>312.67790000000002</v>
       </c>
       <c r="H41">
-        <v>275.66</v>
+        <v>275.66000000000003</v>
       </c>
       <c r="I41">
         <v>1663.45</v>
@@ -4230,16 +4257,16 @@
         <v>1857.78</v>
       </c>
       <c r="R41">
-        <v>1249.1</v>
+        <v>1249.0999999999999</v>
       </c>
       <c r="S41">
-        <v>1839.464</v>
+        <v>1839.4639999999999</v>
       </c>
       <c r="T41">
         <v>266.81</v>
       </c>
       <c r="U41">
-        <v>540.0105</v>
+        <v>540.01049999999998</v>
       </c>
       <c r="V41">
         <v>802.15</v>
@@ -4251,10 +4278,10 @@
         <v>1444.54</v>
       </c>
       <c r="Y41">
-        <v>1705.718</v>
+        <v>1705.7180000000001</v>
       </c>
       <c r="Z41">
-        <v>5265.035</v>
+        <v>5265.0349999999999</v>
       </c>
       <c r="AA41">
         <v>106.63</v>
@@ -4263,27 +4290,27 @@
         <v>5424.5</v>
       </c>
       <c r="AC41">
-        <v>607.9987</v>
+        <v>607.99869999999999</v>
       </c>
       <c r="AD41">
-        <v>879.0700000000001</v>
+        <v>879.07</v>
       </c>
       <c r="AE41">
-        <v>69.911</v>
+        <v>69.911000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44286</v>
       </c>
       <c r="B42">
-        <v>134.45</v>
+        <v>134.44999999999999</v>
       </c>
       <c r="C42">
         <v>1913.336</v>
       </c>
       <c r="D42">
-        <v>2888.629</v>
+        <v>2888.6289999999999</v>
       </c>
       <c r="E42">
         <v>1329.26</v>
@@ -4292,7 +4319,7 @@
         <v>431.2</v>
       </c>
       <c r="G42">
-        <v>320.7997</v>
+        <v>320.79969999999997</v>
       </c>
       <c r="H42">
         <v>285.01</v>
@@ -4328,13 +4355,13 @@
         <v>1337.78</v>
       </c>
       <c r="S42">
-        <v>1889.089</v>
+        <v>1889.0889999999999</v>
       </c>
       <c r="T42">
-        <v>277.78</v>
+        <v>277.77999999999997</v>
       </c>
       <c r="U42">
-        <v>574.6162</v>
+        <v>574.61620000000005</v>
       </c>
       <c r="V42">
         <v>808.98</v>
@@ -4349,7 +4376,7 @@
         <v>1773.875</v>
       </c>
       <c r="Z42">
-        <v>4971.979</v>
+        <v>4971.9790000000003</v>
       </c>
       <c r="AA42">
         <v>110.9</v>
@@ -4358,27 +4385,27 @@
         <v>5604.48</v>
       </c>
       <c r="AC42">
-        <v>634.4202</v>
+        <v>634.42020000000002</v>
       </c>
       <c r="AD42">
         <v>964.67</v>
       </c>
       <c r="AE42">
-        <v>69.498</v>
+        <v>69.498000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44316</v>
       </c>
       <c r="B43">
-        <v>138.8</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="C43">
-        <v>2057.934</v>
+        <v>2057.9340000000002</v>
       </c>
       <c r="D43">
-        <v>3007.204</v>
+        <v>3007.2040000000002</v>
       </c>
       <c r="E43">
         <v>1439.58</v>
@@ -4390,7 +4417,7 @@
         <v>334.4135</v>
       </c>
       <c r="H43">
-        <v>301.91</v>
+        <v>301.91000000000003</v>
       </c>
       <c r="I43">
         <v>1837.7</v>
@@ -4429,7 +4456,7 @@
         <v>300.31</v>
       </c>
       <c r="U43">
-        <v>624.326</v>
+        <v>624.32600000000002</v>
       </c>
       <c r="V43">
         <v>857.67</v>
@@ -4441,10 +4468,10 @@
         <v>1625.51</v>
       </c>
       <c r="Y43">
-        <v>1907.714</v>
+        <v>1907.7139999999999</v>
       </c>
       <c r="Z43">
-        <v>4877.89</v>
+        <v>4877.8900000000003</v>
       </c>
       <c r="AA43">
         <v>115.48</v>
@@ -4453,16 +4480,16 @@
         <v>5915.31</v>
       </c>
       <c r="AC43">
-        <v>675.6624</v>
+        <v>675.66240000000005</v>
       </c>
       <c r="AD43">
         <v>945.2</v>
       </c>
       <c r="AE43">
-        <v>76.374</v>
+        <v>76.373999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44347</v>
       </c>
@@ -4470,10 +4497,10 @@
         <v>140.6</v>
       </c>
       <c r="C44">
-        <v>2081.8</v>
+        <v>2081.8000000000002</v>
       </c>
       <c r="D44">
-        <v>3032.445</v>
+        <v>3032.4450000000002</v>
       </c>
       <c r="E44">
         <v>1460.52</v>
@@ -4482,7 +4509,7 @@
         <v>451.69</v>
       </c>
       <c r="G44">
-        <v>337.9352</v>
+        <v>337.93520000000001</v>
       </c>
       <c r="H44">
         <v>306.07</v>
@@ -4503,7 +4530,7 @@
         <v>1325.98</v>
       </c>
       <c r="N44">
-        <v>1496.255</v>
+        <v>1496.2550000000001</v>
       </c>
       <c r="O44">
         <v>2984.13</v>
@@ -4524,7 +4551,7 @@
         <v>302.61</v>
       </c>
       <c r="U44">
-        <v>629.1013</v>
+        <v>629.10130000000004</v>
       </c>
       <c r="V44">
         <v>900.54</v>
@@ -4539,7 +4566,7 @@
         <v>1917.085</v>
       </c>
       <c r="Z44">
-        <v>4956.079</v>
+        <v>4956.0789999999997</v>
       </c>
       <c r="AA44">
         <v>120.17</v>
@@ -4548,27 +4575,27 @@
         <v>6016.53</v>
       </c>
       <c r="AC44">
-        <v>683.2933</v>
+        <v>683.29330000000004</v>
       </c>
       <c r="AD44">
         <v>1012.65</v>
       </c>
       <c r="AE44">
-        <v>73.306</v>
+        <v>73.305999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44377</v>
       </c>
       <c r="B45">
-        <v>140.23</v>
+        <v>140.22999999999999</v>
       </c>
       <c r="C45">
-        <v>2136.574</v>
+        <v>2136.5740000000001</v>
       </c>
       <c r="D45">
-        <v>3099.885</v>
+        <v>3099.8850000000002</v>
       </c>
       <c r="E45">
         <v>1472.83</v>
@@ -4577,7 +4604,7 @@
         <v>460.31</v>
       </c>
       <c r="G45">
-        <v>347.1169</v>
+        <v>347.11689999999999</v>
       </c>
       <c r="H45">
         <v>310.69</v>
@@ -4613,13 +4640,13 @@
         <v>1465.68</v>
       </c>
       <c r="S45">
-        <v>2053.499</v>
+        <v>2053.4989999999998</v>
       </c>
       <c r="T45">
-        <v>308.15</v>
+        <v>308.14999999999998</v>
       </c>
       <c r="U45">
-        <v>651.1341</v>
+        <v>651.13409999999999</v>
       </c>
       <c r="V45">
         <v>863.74</v>
@@ -4631,10 +4658,10 @@
         <v>1667.82</v>
       </c>
       <c r="Y45">
-        <v>1956.947</v>
+        <v>1956.9469999999999</v>
       </c>
       <c r="Z45">
-        <v>4579.258</v>
+        <v>4579.2579999999998</v>
       </c>
       <c r="AA45">
         <v>119.04</v>
@@ -4643,7 +4670,7 @@
         <v>6071.7</v>
       </c>
       <c r="AC45">
-        <v>701.0281</v>
+        <v>701.02809999999999</v>
       </c>
       <c r="AD45">
         <v>978.71</v>
@@ -4652,7 +4679,7 @@
         <v>75.878</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44407</v>
       </c>
@@ -4660,10 +4687,10 @@
         <v>137.68</v>
       </c>
       <c r="C46">
-        <v>2225.298</v>
+        <v>2225.2979999999998</v>
       </c>
       <c r="D46">
-        <v>3113.531</v>
+        <v>3113.5309999999999</v>
       </c>
       <c r="E46">
         <v>1537.34</v>
@@ -4672,7 +4699,7 @@
         <v>457.1</v>
       </c>
       <c r="G46">
-        <v>349.9029</v>
+        <v>349.90289999999999</v>
       </c>
       <c r="H46">
         <v>322.12</v>
@@ -4702,7 +4729,7 @@
         <v>1914.74</v>
       </c>
       <c r="Q46">
-        <v>2103.95</v>
+        <v>2103.9499999999998</v>
       </c>
       <c r="R46">
         <v>1534.48</v>
@@ -4714,13 +4741,13 @@
         <v>324.07</v>
       </c>
       <c r="U46">
-        <v>682.3977</v>
+        <v>682.39769999999999</v>
       </c>
       <c r="V46">
         <v>917.4</v>
       </c>
       <c r="W46">
-        <v>1221.4</v>
+        <v>1221.4000000000001</v>
       </c>
       <c r="X46">
         <v>1753.2</v>
@@ -4729,7 +4756,7 @@
         <v>2037.279</v>
       </c>
       <c r="Z46">
-        <v>3912.478</v>
+        <v>3912.4780000000001</v>
       </c>
       <c r="AA46">
         <v>125.64</v>
@@ -4738,16 +4765,16 @@
         <v>6163.76</v>
       </c>
       <c r="AC46">
-        <v>730.0282999999999</v>
+        <v>730.02829999999994</v>
       </c>
       <c r="AD46">
         <v>919.7</v>
       </c>
       <c r="AE46">
-        <v>75.29300000000001</v>
+        <v>75.293000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44439</v>
       </c>
@@ -4755,10 +4782,10 @@
         <v>140.03</v>
       </c>
       <c r="C47">
-        <v>2276.903</v>
+        <v>2276.9029999999998</v>
       </c>
       <c r="D47">
-        <v>3151.313</v>
+        <v>3151.3130000000001</v>
       </c>
       <c r="E47">
         <v>1561.81</v>
@@ -4767,10 +4794,10 @@
         <v>461.28</v>
       </c>
       <c r="G47">
-        <v>346.4844</v>
+        <v>346.48439999999999</v>
       </c>
       <c r="H47">
-        <v>326.1</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="I47">
         <v>1998.51</v>
@@ -4788,7 +4815,7 @@
         <v>1384.72</v>
       </c>
       <c r="N47">
-        <v>1607.061</v>
+        <v>1607.0609999999999</v>
       </c>
       <c r="O47">
         <v>3295.45</v>
@@ -4809,7 +4836,7 @@
         <v>329.34</v>
       </c>
       <c r="U47">
-        <v>698.2489</v>
+        <v>698.24890000000005</v>
       </c>
       <c r="V47">
         <v>943.38</v>
@@ -4824,7 +4851,7 @@
         <v>2071.42</v>
       </c>
       <c r="Z47">
-        <v>4125.729</v>
+        <v>4125.7290000000003</v>
       </c>
       <c r="AA47">
         <v>129.4</v>
@@ -4833,27 +4860,27 @@
         <v>6293.43</v>
       </c>
       <c r="AC47">
-        <v>743.7382</v>
+        <v>743.73820000000001</v>
       </c>
       <c r="AD47">
         <v>842.74</v>
       </c>
       <c r="AE47">
-        <v>81.313</v>
+        <v>81.313000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44469</v>
       </c>
       <c r="B48">
-        <v>134.86</v>
+        <v>134.86000000000001</v>
       </c>
       <c r="C48">
         <v>2131.915</v>
       </c>
       <c r="D48">
-        <v>3011.586</v>
+        <v>3011.5859999999998</v>
       </c>
       <c r="E48">
         <v>1481.68</v>
@@ -4862,10 +4889,10 @@
         <v>445.42</v>
       </c>
       <c r="G48">
-        <v>331.934</v>
+        <v>331.93400000000003</v>
       </c>
       <c r="H48">
-        <v>306.29</v>
+        <v>306.29000000000002</v>
       </c>
       <c r="I48">
         <v>1883.33</v>
@@ -4880,7 +4907,7 @@
         <v>217.6</v>
       </c>
       <c r="M48">
-        <v>1302.09</v>
+        <v>1302.0899999999999</v>
       </c>
       <c r="N48">
         <v>1504.71</v>
@@ -4904,22 +4931,22 @@
         <v>309.69</v>
       </c>
       <c r="U48">
-        <v>651.1535</v>
+        <v>651.15350000000001</v>
       </c>
       <c r="V48">
         <v>842.9</v>
       </c>
       <c r="W48">
-        <v>1170.86</v>
+        <v>1170.8599999999999</v>
       </c>
       <c r="X48">
         <v>1675.5</v>
       </c>
       <c r="Y48">
-        <v>1950.263</v>
+        <v>1950.2629999999999</v>
       </c>
       <c r="Z48">
-        <v>4479.329</v>
+        <v>4479.3289999999997</v>
       </c>
       <c r="AA48">
         <v>118.23</v>
@@ -4928,7 +4955,7 @@
         <v>5988.1</v>
       </c>
       <c r="AC48">
-        <v>705.0685</v>
+        <v>705.06849999999997</v>
       </c>
       <c r="AD48">
         <v>753.55</v>
@@ -4937,7 +4964,7 @@
         <v>79.87</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44498</v>
       </c>
@@ -4957,7 +4984,7 @@
         <v>458.34</v>
       </c>
       <c r="G49">
-        <v>342.8388</v>
+        <v>342.83879999999999</v>
       </c>
       <c r="H49">
         <v>323.86</v>
@@ -4978,7 +5005,7 @@
         <v>1369.98</v>
       </c>
       <c r="N49">
-        <v>1593.773</v>
+        <v>1593.7729999999999</v>
       </c>
       <c r="O49">
         <v>3306.3</v>
@@ -4993,13 +5020,13 @@
         <v>1610.71</v>
       </c>
       <c r="S49">
-        <v>2142.445</v>
+        <v>2142.4450000000002</v>
       </c>
       <c r="T49">
         <v>334.65</v>
       </c>
       <c r="U49">
-        <v>702.7705</v>
+        <v>702.77049999999997</v>
       </c>
       <c r="V49">
         <v>880.86</v>
@@ -5011,7 +5038,7 @@
         <v>1809.4</v>
       </c>
       <c r="Y49">
-        <v>2086.334</v>
+        <v>2086.3339999999998</v>
       </c>
       <c r="Z49">
         <v>4089.663</v>
@@ -5023,24 +5050,24 @@
         <v>6257.08</v>
       </c>
       <c r="AC49">
-        <v>748.5223</v>
+        <v>748.52229999999997</v>
       </c>
       <c r="AD49">
-        <v>661.5599999999999</v>
+        <v>661.56</v>
       </c>
       <c r="AE49">
-        <v>77.996</v>
+        <v>77.995999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44530</v>
       </c>
       <c r="B50">
-        <v>135.95</v>
+        <v>135.94999999999999</v>
       </c>
       <c r="C50">
-        <v>2247.302</v>
+        <v>2247.3020000000001</v>
       </c>
       <c r="D50">
         <v>2984.194</v>
@@ -5052,7 +5079,7 @@
         <v>452.7</v>
       </c>
       <c r="G50">
-        <v>331.7413</v>
+        <v>331.74130000000002</v>
       </c>
       <c r="H50">
         <v>314.7</v>
@@ -5094,13 +5121,13 @@
         <v>332.16</v>
       </c>
       <c r="U50">
-        <v>700.199</v>
+        <v>700.19899999999996</v>
       </c>
       <c r="V50">
         <v>867.78</v>
       </c>
       <c r="W50">
-        <v>1151.65</v>
+        <v>1151.6500000000001</v>
       </c>
       <c r="X50">
         <v>1792.98</v>
@@ -5109,7 +5136,7 @@
         <v>2033.557</v>
       </c>
       <c r="Z50">
-        <v>4162.342</v>
+        <v>4162.3419999999996</v>
       </c>
       <c r="AA50">
         <v>123.43</v>
@@ -5124,10 +5151,10 @@
         <v>680.49</v>
       </c>
       <c r="AE50">
-        <v>79.967</v>
+        <v>79.966999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44561</v>
       </c>
@@ -5135,10 +5162,10 @@
         <v>142.44</v>
       </c>
       <c r="C51">
-        <v>2450.381</v>
+        <v>2450.3809999999999</v>
       </c>
       <c r="D51">
-        <v>3095.135</v>
+        <v>3095.1350000000002</v>
       </c>
       <c r="E51">
         <v>1685.01</v>
@@ -5147,7 +5174,7 @@
         <v>452.81</v>
       </c>
       <c r="G51">
-        <v>354.2273</v>
+        <v>354.22730000000001</v>
       </c>
       <c r="H51">
         <v>336.81</v>
@@ -5168,7 +5195,7 @@
         <v>1406.85</v>
       </c>
       <c r="N51">
-        <v>1691.5459</v>
+        <v>1691.5459000000001</v>
       </c>
       <c r="O51">
         <v>3552.67</v>
@@ -5183,13 +5210,13 @@
         <v>1741.65</v>
       </c>
       <c r="S51">
-        <v>2218.046</v>
+        <v>2218.0459999999998</v>
       </c>
       <c r="T51">
         <v>360.47</v>
       </c>
       <c r="U51">
-        <v>766.8665999999999</v>
+        <v>766.86659999999995</v>
       </c>
       <c r="V51">
         <v>910.04</v>
@@ -5204,7 +5231,7 @@
         <v>2215.393</v>
       </c>
       <c r="Z51">
-        <v>4503.138</v>
+        <v>4503.1379999999999</v>
       </c>
       <c r="AA51">
         <v>127.23</v>
@@ -5213,16 +5240,16 @@
         <v>6532.24</v>
       </c>
       <c r="AC51">
-        <v>798.4794000000001</v>
+        <v>798.47940000000006</v>
       </c>
       <c r="AD51">
         <v>724.26</v>
       </c>
       <c r="AE51">
-        <v>83.63200000000001</v>
+        <v>83.632000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44592</v>
       </c>
@@ -5233,7 +5260,7 @@
         <v>2248.143</v>
       </c>
       <c r="D52">
-        <v>2847.323</v>
+        <v>2847.3229999999999</v>
       </c>
       <c r="E52">
         <v>1574.83</v>
@@ -5242,7 +5269,7 @@
         <v>450.13</v>
       </c>
       <c r="G52">
-        <v>347.4257</v>
+        <v>347.42570000000001</v>
       </c>
       <c r="H52">
         <v>312.56</v>
@@ -5278,28 +5305,28 @@
         <v>1657.9</v>
       </c>
       <c r="S52">
-        <v>2059.964</v>
+        <v>2059.9639999999999</v>
       </c>
       <c r="T52">
         <v>336.83</v>
       </c>
       <c r="U52">
-        <v>703.1429000000001</v>
+        <v>703.14290000000005</v>
       </c>
       <c r="V52">
-        <v>883.3200000000001</v>
+        <v>883.32</v>
       </c>
       <c r="W52">
-        <v>1101.09</v>
+        <v>1101.0899999999999</v>
       </c>
       <c r="X52">
         <v>1819.22</v>
       </c>
       <c r="Y52">
-        <v>2030.284</v>
+        <v>2030.2840000000001</v>
       </c>
       <c r="Z52">
-        <v>4450.708</v>
+        <v>4450.7079999999996</v>
       </c>
       <c r="AA52">
         <v>128.29</v>
@@ -5308,16 +5335,16 @@
         <v>6157.67</v>
       </c>
       <c r="AC52">
-        <v>747.4879</v>
+        <v>747.48789999999997</v>
       </c>
       <c r="AD52">
         <v>798.74</v>
       </c>
       <c r="AE52">
-        <v>80.95399999999999</v>
+        <v>80.953999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44620</v>
       </c>
@@ -5325,10 +5352,10 @@
         <v>135.28</v>
       </c>
       <c r="C53">
-        <v>2159.286</v>
+        <v>2159.2860000000001</v>
       </c>
       <c r="D53">
-        <v>2844.475</v>
+        <v>2844.4749999999999</v>
       </c>
       <c r="E53">
         <v>1533.11</v>
@@ -5337,10 +5364,10 @@
         <v>430.88</v>
       </c>
       <c r="G53">
-        <v>342.9232</v>
+        <v>342.92320000000001</v>
       </c>
       <c r="H53">
-        <v>300.54</v>
+        <v>300.54000000000002</v>
       </c>
       <c r="I53">
         <v>1843.01</v>
@@ -5358,7 +5385,7 @@
         <v>1268.68</v>
       </c>
       <c r="N53">
-        <v>1509.276</v>
+        <v>1509.2760000000001</v>
       </c>
       <c r="O53">
         <v>3086.52</v>
@@ -5373,13 +5400,13 @@
         <v>1609.66</v>
       </c>
       <c r="S53">
-        <v>1994.209</v>
+        <v>1994.2090000000001</v>
       </c>
       <c r="T53">
         <v>324.52</v>
       </c>
       <c r="U53">
-        <v>671.285</v>
+        <v>671.28499999999997</v>
       </c>
       <c r="V53">
         <v>863.78</v>
@@ -5394,7 +5421,7 @@
         <v>1950.04</v>
       </c>
       <c r="Z53">
-        <v>4378.578</v>
+        <v>4378.5780000000004</v>
       </c>
       <c r="AA53">
         <v>126.29</v>
@@ -5403,16 +5430,16 @@
         <v>5975.33</v>
       </c>
       <c r="AC53">
-        <v>728.2927</v>
+        <v>728.29269999999997</v>
       </c>
       <c r="AD53">
         <v>743.3</v>
       </c>
       <c r="AE53">
-        <v>78.351</v>
+        <v>78.350999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44651</v>
       </c>
@@ -5420,10 +5447,10 @@
         <v>140.46</v>
       </c>
       <c r="C54">
-        <v>2303.772</v>
+        <v>2303.7719999999999</v>
       </c>
       <c r="D54">
-        <v>2949.195</v>
+        <v>2949.1950000000002</v>
       </c>
       <c r="E54">
         <v>1619.07</v>
@@ -5432,7 +5459,7 @@
         <v>448.15</v>
       </c>
       <c r="G54">
-        <v>360.8215</v>
+        <v>360.82150000000001</v>
       </c>
       <c r="H54">
         <v>314.64</v>
@@ -5453,13 +5480,13 @@
         <v>1316.48</v>
       </c>
       <c r="N54">
-        <v>1594.948</v>
+        <v>1594.9480000000001</v>
       </c>
       <c r="O54">
         <v>3286.1</v>
       </c>
       <c r="P54">
-        <v>2259.05</v>
+        <v>2259.0500000000002</v>
       </c>
       <c r="Q54">
         <v>2000.83</v>
@@ -5468,28 +5495,28 @@
         <v>1718.86</v>
       </c>
       <c r="S54">
-        <v>2078.651</v>
+        <v>2078.6509999999998</v>
       </c>
       <c r="T54">
         <v>344.51</v>
       </c>
       <c r="U54">
-        <v>717.8200000000001</v>
+        <v>717.82</v>
       </c>
       <c r="V54">
         <v>881.25</v>
       </c>
       <c r="W54">
-        <v>1131.84</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="X54">
         <v>1862.59</v>
       </c>
       <c r="Y54">
-        <v>2065.897</v>
+        <v>2065.8969999999999</v>
       </c>
       <c r="Z54">
-        <v>4734.715</v>
+        <v>4734.7150000000001</v>
       </c>
       <c r="AA54">
         <v>126.6</v>
@@ -5498,27 +5525,27 @@
         <v>6217.72</v>
       </c>
       <c r="AC54">
-        <v>772.7458</v>
+        <v>772.74580000000003</v>
       </c>
       <c r="AD54">
-        <v>785.8200000000001</v>
+        <v>785.82</v>
       </c>
       <c r="AE54">
         <v>82.012</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44680</v>
       </c>
       <c r="B55">
-        <v>135.64</v>
+        <v>135.63999999999999</v>
       </c>
       <c r="C55">
         <v>2223.297</v>
       </c>
       <c r="D55">
-        <v>2814.169</v>
+        <v>2814.1689999999999</v>
       </c>
       <c r="E55">
         <v>1541.04</v>
@@ -5527,10 +5554,10 @@
         <v>434.27</v>
       </c>
       <c r="G55">
-        <v>342.3478</v>
+        <v>342.34780000000001</v>
       </c>
       <c r="H55">
-        <v>300.53</v>
+        <v>300.52999999999997</v>
       </c>
       <c r="I55">
         <v>1836.76</v>
@@ -5545,10 +5572,10 @@
         <v>228</v>
       </c>
       <c r="M55">
-        <v>1244.91</v>
+        <v>1244.9100000000001</v>
       </c>
       <c r="N55">
-        <v>1526.237</v>
+        <v>1526.2370000000001</v>
       </c>
       <c r="O55">
         <v>3167.94</v>
@@ -5569,22 +5596,22 @@
         <v>328.13</v>
       </c>
       <c r="U55">
-        <v>689.6433</v>
+        <v>689.64329999999995</v>
       </c>
       <c r="V55">
         <v>814.22</v>
       </c>
       <c r="W55">
-        <v>1070.37</v>
+        <v>1070.3699999999999</v>
       </c>
       <c r="X55">
         <v>1773.07</v>
       </c>
       <c r="Y55">
-        <v>1975.872</v>
+        <v>1975.8720000000001</v>
       </c>
       <c r="Z55">
-        <v>4480.958</v>
+        <v>4480.9579999999996</v>
       </c>
       <c r="AA55">
         <v>119.78</v>
@@ -5593,27 +5620,27 @@
         <v>5919.44</v>
       </c>
       <c r="AC55">
-        <v>743.6275000000001</v>
+        <v>743.62750000000005</v>
       </c>
       <c r="AD55">
         <v>733.76</v>
       </c>
       <c r="AE55">
-        <v>80.11499999999999</v>
+        <v>80.114999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44712</v>
       </c>
       <c r="B56">
-        <v>129.14</v>
+        <v>129.13999999999999</v>
       </c>
       <c r="C56">
-        <v>2121.282</v>
+        <v>2121.2820000000002</v>
       </c>
       <c r="D56">
-        <v>2769.191</v>
+        <v>2769.1909999999998</v>
       </c>
       <c r="E56">
         <v>1436.95</v>
@@ -5640,10 +5667,10 @@
         <v>216.3</v>
       </c>
       <c r="M56">
-        <v>1196.66</v>
+        <v>1196.6600000000001</v>
       </c>
       <c r="N56">
-        <v>1460.391</v>
+        <v>1460.3910000000001</v>
       </c>
       <c r="O56">
         <v>3020.01</v>
@@ -5658,16 +5685,16 @@
         <v>1606.19</v>
       </c>
       <c r="S56">
-        <v>1896.024</v>
+        <v>1896.0239999999999</v>
       </c>
       <c r="T56">
-        <v>305.1</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="U56">
-        <v>662.4113</v>
+        <v>662.41129999999998</v>
       </c>
       <c r="V56">
-        <v>778.4400000000001</v>
+        <v>778.44</v>
       </c>
       <c r="W56">
         <v>1069.76</v>
@@ -5688,16 +5715,16 @@
         <v>5693.67</v>
       </c>
       <c r="AC56">
-        <v>704.2932</v>
+        <v>704.29319999999996</v>
       </c>
       <c r="AD56">
         <v>700.98</v>
       </c>
       <c r="AE56">
-        <v>79.889</v>
+        <v>79.888999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44742</v>
       </c>
@@ -5708,7 +5735,7 @@
         <v>1961.85</v>
       </c>
       <c r="D57">
-        <v>2520.727</v>
+        <v>2520.7269999999999</v>
       </c>
       <c r="E57">
         <v>1306.55</v>
@@ -5717,7 +5744,7 @@
         <v>404.02</v>
       </c>
       <c r="G57">
-        <v>298.3385</v>
+        <v>298.33850000000001</v>
       </c>
       <c r="H57">
         <v>265.49</v>
@@ -5735,10 +5762,10 @@
         <v>200.13</v>
       </c>
       <c r="M57">
-        <v>1094.87</v>
+        <v>1094.8699999999999</v>
       </c>
       <c r="N57">
-        <v>1336.014</v>
+        <v>1336.0139999999999</v>
       </c>
       <c r="O57">
         <v>2804.5</v>
@@ -5753,13 +5780,13 @@
         <v>1513.35</v>
       </c>
       <c r="S57">
-        <v>1729.369</v>
+        <v>1729.3689999999999</v>
       </c>
       <c r="T57">
         <v>279.74</v>
       </c>
       <c r="U57">
-        <v>620.6785</v>
+        <v>620.67849999999999</v>
       </c>
       <c r="V57">
         <v>648.78</v>
@@ -5774,7 +5801,7 @@
         <v>1733.923</v>
       </c>
       <c r="Z57">
-        <v>4339.294</v>
+        <v>4339.2939999999999</v>
       </c>
       <c r="AA57">
         <v>94.55</v>
@@ -5783,16 +5810,16 @@
         <v>5251.05</v>
       </c>
       <c r="AC57">
-        <v>649.0195</v>
+        <v>649.01949999999999</v>
       </c>
       <c r="AD57">
         <v>615.98</v>
       </c>
       <c r="AE57">
-        <v>70.812</v>
+        <v>70.811999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44771</v>
       </c>
@@ -5800,10 +5827,10 @@
         <v>123.17</v>
       </c>
       <c r="C58">
-        <v>2123.959</v>
+        <v>2123.9589999999998</v>
       </c>
       <c r="D58">
-        <v>2708.318</v>
+        <v>2708.3180000000002</v>
       </c>
       <c r="E58">
         <v>1411.9</v>
@@ -5812,7 +5839,7 @@
         <v>451.03</v>
       </c>
       <c r="G58">
-        <v>327.074</v>
+        <v>327.07400000000001</v>
       </c>
       <c r="H58">
         <v>286.14</v>
@@ -5830,16 +5857,16 @@
         <v>217.13</v>
       </c>
       <c r="M58">
-        <v>1167.1</v>
+        <v>1167.0999999999999</v>
       </c>
       <c r="N58">
-        <v>1443.487</v>
+        <v>1443.4870000000001</v>
       </c>
       <c r="O58">
         <v>3035.14</v>
       </c>
       <c r="P58">
-        <v>2223.55</v>
+        <v>2223.5500000000002</v>
       </c>
       <c r="Q58">
         <v>2040.91</v>
@@ -5854,10 +5881,10 @@
         <v>304.24</v>
       </c>
       <c r="U58">
-        <v>667.1492</v>
+        <v>667.14919999999995</v>
       </c>
       <c r="V58">
-        <v>711.0700000000001</v>
+        <v>711.07</v>
       </c>
       <c r="W58">
         <v>1041.24</v>
@@ -5878,16 +5905,16 @@
         <v>5583.66</v>
       </c>
       <c r="AC58">
-        <v>701.3703</v>
+        <v>701.37030000000004</v>
       </c>
       <c r="AD58">
         <v>669.75</v>
       </c>
       <c r="AE58">
-        <v>77.001</v>
+        <v>77.001000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44804</v>
       </c>
@@ -5895,10 +5922,10 @@
         <v>117.2</v>
       </c>
       <c r="C59">
-        <v>1998.362</v>
+        <v>1998.3620000000001</v>
       </c>
       <c r="D59">
-        <v>2594.305</v>
+        <v>2594.3049999999998</v>
       </c>
       <c r="E59">
         <v>1320.51</v>
@@ -5907,7 +5934,7 @@
         <v>430.38</v>
       </c>
       <c r="G59">
-        <v>304.7376</v>
+        <v>304.73759999999999</v>
       </c>
       <c r="H59">
         <v>268.69</v>
@@ -5928,7 +5955,7 @@
         <v>1093.71</v>
       </c>
       <c r="N59">
-        <v>1354.727</v>
+        <v>1354.7270000000001</v>
       </c>
       <c r="O59">
         <v>2858.18</v>
@@ -5949,10 +5976,10 @@
         <v>284.92</v>
       </c>
       <c r="U59">
-        <v>632.0646</v>
+        <v>632.06460000000004</v>
       </c>
       <c r="V59">
-        <v>614.17</v>
+        <v>614.16999999999996</v>
       </c>
       <c r="W59">
         <v>994.72</v>
@@ -5961,10 +5988,10 @@
         <v>1539.3</v>
       </c>
       <c r="Y59">
-        <v>1770.834</v>
+        <v>1770.8340000000001</v>
       </c>
       <c r="Z59">
-        <v>4029.111</v>
+        <v>4029.1109999999999</v>
       </c>
       <c r="AA59">
         <v>95.34</v>
@@ -5973,16 +6000,16 @@
         <v>5285.69</v>
       </c>
       <c r="AC59">
-        <v>661.3796</v>
+        <v>661.37959999999998</v>
       </c>
       <c r="AD59">
         <v>716.67</v>
       </c>
       <c r="AE59">
-        <v>71.958</v>
+        <v>71.957999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44834</v>
       </c>
@@ -5990,10 +6017,10 @@
         <v>104.49</v>
       </c>
       <c r="C60">
-        <v>1730.631</v>
+        <v>1730.6310000000001</v>
       </c>
       <c r="D60">
-        <v>2292.064</v>
+        <v>2292.0639999999999</v>
       </c>
       <c r="E60">
         <v>1146.57</v>
@@ -6002,7 +6029,7 @@
         <v>365.92</v>
       </c>
       <c r="G60">
-        <v>264.5947</v>
+        <v>264.59469999999999</v>
       </c>
       <c r="H60">
         <v>233.27</v>
@@ -6023,7 +6050,7 @@
         <v>948.5</v>
       </c>
       <c r="N60">
-        <v>1172.592</v>
+        <v>1172.5920000000001</v>
       </c>
       <c r="O60">
         <v>2464.71</v>
@@ -6038,13 +6065,13 @@
         <v>1443.82</v>
       </c>
       <c r="S60">
-        <v>1518.406</v>
+        <v>1518.4059999999999</v>
       </c>
       <c r="T60">
         <v>248.38</v>
       </c>
       <c r="U60">
-        <v>555.0746</v>
+        <v>555.07460000000003</v>
       </c>
       <c r="V60">
         <v>492.54</v>
@@ -6059,7 +6086,7 @@
         <v>1538.374</v>
       </c>
       <c r="Z60">
-        <v>4003.158</v>
+        <v>4003.1579999999999</v>
       </c>
       <c r="AA60">
         <v>79.48</v>
@@ -6068,16 +6095,16 @@
         <v>4623.32</v>
       </c>
       <c r="AC60">
-        <v>580.3385</v>
+        <v>580.33849999999995</v>
       </c>
       <c r="AD60">
-        <v>805.5700000000001</v>
+        <v>805.57</v>
       </c>
       <c r="AE60">
         <v>65.503</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44865</v>
       </c>
@@ -6088,7 +6115,7 @@
         <v>1767.07</v>
       </c>
       <c r="D61">
-        <v>2289.349</v>
+        <v>2289.3490000000002</v>
       </c>
       <c r="E61">
         <v>1189.79</v>
@@ -6097,7 +6124,7 @@
         <v>378.83</v>
       </c>
       <c r="G61">
-        <v>288.1629</v>
+        <v>288.16289999999998</v>
       </c>
       <c r="H61">
         <v>236.42</v>
@@ -6121,10 +6148,10 @@
         <v>1203.896</v>
       </c>
       <c r="O61">
-        <v>2500.05</v>
+        <v>2500.0500000000002</v>
       </c>
       <c r="P61">
-        <v>2108.32</v>
+        <v>2108.3200000000002</v>
       </c>
       <c r="Q61">
         <v>2011.77</v>
@@ -6133,16 +6160,16 @@
         <v>1486.79</v>
       </c>
       <c r="S61">
-        <v>1554.637</v>
+        <v>1554.6369999999999</v>
       </c>
       <c r="T61">
         <v>259.17</v>
       </c>
       <c r="U61">
-        <v>565.9075</v>
+        <v>565.90750000000003</v>
       </c>
       <c r="V61">
-        <v>532.4400000000001</v>
+        <v>532.44000000000005</v>
       </c>
       <c r="W61">
         <v>885.14</v>
@@ -6151,28 +6178,28 @@
         <v>1401.01</v>
       </c>
       <c r="Y61">
-        <v>1594.446</v>
+        <v>1594.4459999999999</v>
       </c>
       <c r="Z61">
-        <v>3381.954</v>
+        <v>3381.9540000000002</v>
       </c>
       <c r="AA61">
-        <v>83.54000000000001</v>
+        <v>83.54</v>
       </c>
       <c r="AB61">
         <v>4669.88</v>
       </c>
       <c r="AC61">
-        <v>603.8271</v>
+        <v>603.82709999999997</v>
       </c>
       <c r="AD61">
         <v>823.04</v>
       </c>
       <c r="AE61">
-        <v>71.96899999999999</v>
+        <v>71.968999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44895</v>
       </c>
@@ -6180,10 +6207,10 @@
         <v>110.27</v>
       </c>
       <c r="C62">
-        <v>1893.361</v>
+        <v>1893.3610000000001</v>
       </c>
       <c r="D62">
-        <v>2505.418</v>
+        <v>2505.4180000000001</v>
       </c>
       <c r="E62">
         <v>1263.71</v>
@@ -6192,7 +6219,7 @@
         <v>409.92</v>
       </c>
       <c r="G62">
-        <v>307.7649</v>
+        <v>307.76490000000001</v>
       </c>
       <c r="H62">
         <v>254.16</v>
@@ -6210,7 +6237,7 @@
         <v>192.34</v>
       </c>
       <c r="M62">
-        <v>1037.34</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="N62">
         <v>1282.2454</v>
@@ -6219,7 +6246,7 @@
         <v>2669.52</v>
       </c>
       <c r="P62">
-        <v>2092.49</v>
+        <v>2092.4899999999998</v>
       </c>
       <c r="Q62">
         <v>2013.3</v>
@@ -6234,7 +6261,7 @@
         <v>273.7</v>
       </c>
       <c r="U62">
-        <v>595.7927</v>
+        <v>595.79269999999997</v>
       </c>
       <c r="V62">
         <v>564.59</v>
@@ -6249,7 +6276,7 @@
         <v>1688.69</v>
       </c>
       <c r="Z62">
-        <v>4241.166</v>
+        <v>4241.1660000000002</v>
       </c>
       <c r="AA62">
         <v>86.61</v>
@@ -6258,16 +6285,16 @@
         <v>5071.08</v>
       </c>
       <c r="AC62">
-        <v>631.9039</v>
+        <v>631.90390000000002</v>
       </c>
       <c r="AD62">
         <v>686.67</v>
       </c>
       <c r="AE62">
-        <v>75.063</v>
+        <v>75.063000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44925</v>
       </c>
@@ -6275,10 +6302,10 @@
         <v>104.59</v>
       </c>
       <c r="C63">
-        <v>1815.476</v>
+        <v>1815.4760000000001</v>
       </c>
       <c r="D63">
-        <v>2520.841</v>
+        <v>2520.8409999999999</v>
       </c>
       <c r="E63">
         <v>1201.06</v>
@@ -6287,7 +6314,7 @@
         <v>393.17</v>
       </c>
       <c r="G63">
-        <v>290.9503</v>
+        <v>290.95030000000003</v>
       </c>
       <c r="H63">
         <v>245.64</v>
@@ -6329,19 +6356,19 @@
         <v>257.64</v>
       </c>
       <c r="U63">
-        <v>565.4312</v>
+        <v>565.43119999999999</v>
       </c>
       <c r="V63">
-        <v>574.92</v>
+        <v>574.91999999999996</v>
       </c>
       <c r="W63">
-        <v>965.9400000000001</v>
+        <v>965.94</v>
       </c>
       <c r="X63">
         <v>1394.32</v>
       </c>
       <c r="Y63">
-        <v>1591.859</v>
+        <v>1591.8589999999999</v>
       </c>
       <c r="Z63">
         <v>3792.681</v>
@@ -6353,16 +6380,16 @@
         <v>4909.41</v>
       </c>
       <c r="AC63">
-        <v>604.0586</v>
+        <v>604.05859999999996</v>
       </c>
       <c r="AD63">
         <v>659.41</v>
       </c>
       <c r="AE63">
-        <v>75.53400000000001</v>
+        <v>75.534000000000006</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44957</v>
       </c>
@@ -6370,10 +6397,10 @@
         <v>112.96</v>
       </c>
       <c r="C64">
-        <v>1992.887</v>
+        <v>1992.8869999999999</v>
       </c>
       <c r="D64">
-        <v>2640.999</v>
+        <v>2640.9989999999998</v>
       </c>
       <c r="E64">
         <v>1329.8</v>
@@ -6382,7 +6409,7 @@
         <v>418.8</v>
       </c>
       <c r="G64">
-        <v>323.6239</v>
+        <v>323.62389999999999</v>
       </c>
       <c r="H64">
         <v>266.36</v>
@@ -6400,7 +6427,7 @@
         <v>199.74</v>
       </c>
       <c r="M64">
-        <v>1092.34</v>
+        <v>1092.3399999999999</v>
       </c>
       <c r="N64">
         <v>1341.15</v>
@@ -6424,7 +6451,7 @@
         <v>285.57</v>
       </c>
       <c r="U64">
-        <v>619.2816</v>
+        <v>619.28160000000003</v>
       </c>
       <c r="V64">
         <v>642.02</v>
@@ -6442,22 +6469,22 @@
         <v>3960.424</v>
       </c>
       <c r="AA64">
-        <v>94.93000000000001</v>
+        <v>94.93</v>
       </c>
       <c r="AB64">
         <v>5335.58</v>
       </c>
       <c r="AC64">
-        <v>654.9362</v>
+        <v>654.93619999999999</v>
       </c>
       <c r="AD64">
         <v>705.92</v>
       </c>
       <c r="AE64">
-        <v>74.652</v>
+        <v>74.652000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44985</v>
       </c>
@@ -6465,19 +6492,19 @@
         <v>106.46</v>
       </c>
       <c r="C65">
-        <v>1873.709</v>
+        <v>1873.7090000000001</v>
       </c>
       <c r="D65">
         <v>2518.91</v>
       </c>
       <c r="E65">
-        <v>1266.11</v>
+        <v>1266.1099999999999</v>
       </c>
       <c r="F65">
         <v>408.81</v>
       </c>
       <c r="G65">
-        <v>297.0978</v>
+        <v>297.09780000000001</v>
       </c>
       <c r="H65">
         <v>251.42</v>
@@ -6495,7 +6522,7 @@
         <v>187.61</v>
       </c>
       <c r="M65">
-        <v>1030.84</v>
+        <v>1030.8399999999999</v>
       </c>
       <c r="N65">
         <v>1266.768</v>
@@ -6504,7 +6531,7 @@
         <v>2606.15</v>
       </c>
       <c r="P65">
-        <v>2075.3</v>
+        <v>2075.3000000000002</v>
       </c>
       <c r="Q65">
         <v>1909.68</v>
@@ -6516,10 +6543,10 @@
         <v>1648.663</v>
       </c>
       <c r="T65">
-        <v>271.15</v>
+        <v>271.14999999999998</v>
       </c>
       <c r="U65">
-        <v>582.7456</v>
+        <v>582.74559999999997</v>
       </c>
       <c r="V65">
         <v>629.23</v>
@@ -6531,10 +6558,10 @@
         <v>1469.25</v>
       </c>
       <c r="Y65">
-        <v>1646.092</v>
+        <v>1646.0920000000001</v>
       </c>
       <c r="Z65">
-        <v>3873.479</v>
+        <v>3873.4789999999998</v>
       </c>
       <c r="AA65">
         <v>93.78</v>
@@ -6543,16 +6570,16 @@
         <v>5052.66</v>
       </c>
       <c r="AC65">
-        <v>629.1864</v>
+        <v>629.18640000000005</v>
       </c>
       <c r="AD65">
         <v>673.17</v>
       </c>
       <c r="AE65">
-        <v>73.718</v>
+        <v>73.718000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45016</v>
       </c>
@@ -6566,13 +6593,13 @@
         <v>2454.498</v>
       </c>
       <c r="E66">
-        <v>1219.87</v>
+        <v>1219.8699999999999</v>
       </c>
       <c r="F66">
         <v>378.01</v>
       </c>
       <c r="G66">
-        <v>270.9456</v>
+        <v>270.94560000000001</v>
       </c>
       <c r="H66">
         <v>244.34</v>
@@ -6593,7 +6620,7 @@
         <v>996.12</v>
       </c>
       <c r="N66">
-        <v>1232.746</v>
+        <v>1232.7460000000001</v>
       </c>
       <c r="O66">
         <v>2546.5</v>
@@ -6614,7 +6641,7 @@
         <v>262.08</v>
       </c>
       <c r="U66">
-        <v>579.3078</v>
+        <v>579.30780000000004</v>
       </c>
       <c r="V66">
         <v>583.12</v>
@@ -6629,7 +6656,7 @@
         <v>1599.912</v>
       </c>
       <c r="Z66">
-        <v>3635.476</v>
+        <v>3635.4760000000001</v>
       </c>
       <c r="AA66">
         <v>81.83</v>
@@ -6638,16 +6665,16 @@
         <v>4920.79</v>
       </c>
       <c r="AC66">
-        <v>606.8228</v>
+        <v>606.82280000000003</v>
       </c>
       <c r="AD66">
-        <v>668.3099999999999</v>
+        <v>668.31</v>
       </c>
       <c r="AE66">
-        <v>70.039</v>
+        <v>70.039000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45044</v>
       </c>
@@ -6658,16 +6685,16 @@
         <v>1864.884</v>
       </c>
       <c r="D67">
-        <v>2519.621</v>
+        <v>2519.6210000000001</v>
       </c>
       <c r="E67">
-        <v>1232.4</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="F67">
         <v>381.56</v>
       </c>
       <c r="G67">
-        <v>267.0343</v>
+        <v>267.03429999999997</v>
       </c>
       <c r="H67">
         <v>248.42</v>
@@ -6688,7 +6715,7 @@
         <v>1003.68</v>
       </c>
       <c r="N67">
-        <v>1244.766</v>
+        <v>1244.7660000000001</v>
       </c>
       <c r="O67">
         <v>2566.6</v>
@@ -6709,10 +6736,10 @@
         <v>263.51</v>
       </c>
       <c r="U67">
-        <v>578.6177</v>
+        <v>578.61770000000001</v>
       </c>
       <c r="V67">
-        <v>619.05</v>
+        <v>619.04999999999995</v>
       </c>
       <c r="W67">
         <v>945.33</v>
@@ -6721,13 +6748,13 @@
         <v>1427.7</v>
       </c>
       <c r="Y67">
-        <v>1605.516</v>
+        <v>1605.5160000000001</v>
       </c>
       <c r="Z67">
-        <v>3648.941</v>
+        <v>3648.9409999999998</v>
       </c>
       <c r="AA67">
-        <v>86.06999999999999</v>
+        <v>86.07</v>
       </c>
       <c r="AB67">
         <v>4990.7</v>
@@ -6739,10 +6766,10 @@
         <v>714.05</v>
       </c>
       <c r="AE67">
-        <v>72.908</v>
+        <v>72.908000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45077</v>
       </c>
@@ -6750,13 +6777,13 @@
         <v>98.05</v>
       </c>
       <c r="C68">
-        <v>1772.763</v>
+        <v>1772.7629999999999</v>
       </c>
       <c r="D68">
-        <v>2427.149</v>
+        <v>2427.1489999999999</v>
       </c>
       <c r="E68">
-        <v>1188.61</v>
+        <v>1188.6099999999999</v>
       </c>
       <c r="F68">
         <v>361.09</v>
@@ -6783,7 +6810,7 @@
         <v>952.53</v>
       </c>
       <c r="N68">
-        <v>1185.8501</v>
+        <v>1185.8501000000001</v>
       </c>
       <c r="O68">
         <v>2444.69</v>
@@ -6804,7 +6831,7 @@
         <v>255.79</v>
       </c>
       <c r="U68">
-        <v>556.2359</v>
+        <v>556.23590000000002</v>
       </c>
       <c r="V68">
         <v>555.53</v>
@@ -6816,28 +6843,28 @@
         <v>1386.09</v>
       </c>
       <c r="Y68">
-        <v>1542.061</v>
+        <v>1542.0609999999999</v>
       </c>
       <c r="Z68">
         <v>3385.221</v>
       </c>
       <c r="AA68">
-        <v>78.81999999999999</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="AB68">
         <v>4737.13</v>
       </c>
       <c r="AC68">
-        <v>593.244</v>
+        <v>593.24400000000003</v>
       </c>
       <c r="AD68">
         <v>836.21</v>
       </c>
       <c r="AE68">
-        <v>67.828</v>
+        <v>67.828000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45107</v>
       </c>
@@ -6845,19 +6872,19 @@
         <v>103.53</v>
       </c>
       <c r="C69">
-        <v>1844.407</v>
+        <v>1844.4069999999999</v>
       </c>
       <c r="D69">
-        <v>2398.094</v>
+        <v>2398.0940000000001</v>
       </c>
       <c r="E69">
-        <v>1233.09</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="F69">
         <v>368.74</v>
       </c>
       <c r="G69">
-        <v>286.7436</v>
+        <v>286.74360000000001</v>
       </c>
       <c r="H69">
         <v>242.34</v>
@@ -6878,13 +6905,13 @@
         <v>980.49</v>
       </c>
       <c r="N69">
-        <v>1221.495</v>
+        <v>1221.4949999999999</v>
       </c>
       <c r="O69">
         <v>2552.09</v>
       </c>
       <c r="P69">
-        <v>2147.03</v>
+        <v>2147.0300000000002</v>
       </c>
       <c r="Q69">
         <v>1950.22</v>
@@ -6896,10 +6923,10 @@
         <v>1589.84</v>
       </c>
       <c r="T69">
-        <v>266.97</v>
+        <v>266.97000000000003</v>
       </c>
       <c r="U69">
-        <v>586.0449</v>
+        <v>586.04489999999998</v>
       </c>
       <c r="V69">
         <v>546.24</v>
@@ -6914,25 +6941,25 @@
         <v>1619.192</v>
       </c>
       <c r="Z69">
-        <v>3379.465</v>
+        <v>3379.4650000000001</v>
       </c>
       <c r="AA69">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="AB69">
-        <v>4923.9</v>
+        <v>4923.8999999999996</v>
       </c>
       <c r="AC69">
-        <v>610.5337</v>
+        <v>610.53369999999995</v>
       </c>
       <c r="AD69">
-        <v>916.6799999999999</v>
+        <v>916.68</v>
       </c>
       <c r="AE69">
-        <v>68.291</v>
+        <v>68.290999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45138</v>
       </c>
@@ -6943,16 +6970,16 @@
         <v>1883.105</v>
       </c>
       <c r="D70">
-        <v>2485.053</v>
+        <v>2485.0529999999999</v>
       </c>
       <c r="E70">
-        <v>1273.88</v>
+        <v>1273.8800000000001</v>
       </c>
       <c r="F70">
         <v>383.79</v>
       </c>
       <c r="G70">
-        <v>311.3126</v>
+        <v>311.31259999999997</v>
       </c>
       <c r="H70">
         <v>248.49</v>
@@ -6979,7 +7006,7 @@
         <v>2587.86</v>
       </c>
       <c r="P70">
-        <v>2180.74</v>
+        <v>2180.7399999999998</v>
       </c>
       <c r="Q70">
         <v>1972.5</v>
@@ -6988,10 +7015,10 @@
         <v>1436.69</v>
       </c>
       <c r="S70">
-        <v>1639.522</v>
+        <v>1639.5219999999999</v>
       </c>
       <c r="T70">
-        <v>274.21</v>
+        <v>274.20999999999998</v>
       </c>
       <c r="U70">
         <v>590.4511</v>
@@ -7006,7 +7033,7 @@
         <v>1485.16</v>
       </c>
       <c r="Y70">
-        <v>1650.772</v>
+        <v>1650.7719999999999</v>
       </c>
       <c r="Z70">
         <v>3735.701</v>
@@ -7015,19 +7042,19 @@
         <v>87.34</v>
       </c>
       <c r="AB70">
-        <v>5104.56</v>
+        <v>5104.5600000000004</v>
       </c>
       <c r="AC70">
-        <v>625.7403</v>
+        <v>625.74030000000005</v>
       </c>
       <c r="AD70">
         <v>963.86</v>
       </c>
       <c r="AE70">
-        <v>69.72799999999999</v>
+        <v>69.727999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45169</v>
       </c>
@@ -7035,7 +7062,7 @@
         <v>103.99</v>
       </c>
       <c r="C71">
-        <v>1823.438</v>
+        <v>1823.4380000000001</v>
       </c>
       <c r="D71">
         <v>2432.462</v>
@@ -7047,7 +7074,7 @@
         <v>368.46</v>
       </c>
       <c r="G71">
-        <v>300.9635</v>
+        <v>300.96350000000001</v>
       </c>
       <c r="H71">
         <v>240.62</v>
@@ -7083,16 +7110,16 @@
         <v>1413.34</v>
       </c>
       <c r="S71">
-        <v>1584.372</v>
+        <v>1584.3720000000001</v>
       </c>
       <c r="T71">
         <v>265</v>
       </c>
       <c r="U71">
-        <v>568.8851</v>
+        <v>568.88509999999997</v>
       </c>
       <c r="V71">
-        <v>565.4400000000001</v>
+        <v>565.44000000000005</v>
       </c>
       <c r="W71">
         <v>871.91</v>
@@ -7101,39 +7128,39 @@
         <v>1434.81</v>
       </c>
       <c r="Y71">
-        <v>1593.584</v>
+        <v>1593.5840000000001</v>
       </c>
       <c r="Z71">
-        <v>3468.936</v>
+        <v>3468.9360000000001</v>
       </c>
       <c r="AA71">
-        <v>86.84999999999999</v>
+        <v>86.85</v>
       </c>
       <c r="AB71">
-        <v>4928.14</v>
+        <v>4928.1400000000003</v>
       </c>
       <c r="AC71">
-        <v>607.4083000000001</v>
+        <v>607.40830000000005</v>
       </c>
       <c r="AD71">
         <v>890.16</v>
       </c>
       <c r="AE71">
-        <v>69.789</v>
+        <v>69.789000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45198</v>
       </c>
       <c r="B72">
-        <v>99.54000000000001</v>
+        <v>99.54</v>
       </c>
       <c r="C72">
-        <v>1693.033</v>
+        <v>1693.0329999999999</v>
       </c>
       <c r="D72">
-        <v>2306.185</v>
+        <v>2306.1849999999999</v>
       </c>
       <c r="E72">
         <v>1150.57</v>
@@ -7163,13 +7190,13 @@
         <v>910.05</v>
       </c>
       <c r="N72">
-        <v>1117.985</v>
+        <v>1117.9849999999999</v>
       </c>
       <c r="O72">
         <v>2309.02</v>
       </c>
       <c r="P72">
-        <v>2065.24</v>
+        <v>2065.2399999999998</v>
       </c>
       <c r="Q72">
         <v>1970.28</v>
@@ -7178,16 +7205,16 @@
         <v>1354.25</v>
       </c>
       <c r="S72">
-        <v>1475.089</v>
+        <v>1475.0889999999999</v>
       </c>
       <c r="T72">
         <v>244.65</v>
       </c>
       <c r="U72">
-        <v>531.5034000000001</v>
+        <v>531.50340000000006</v>
       </c>
       <c r="V72">
-        <v>522.0599999999999</v>
+        <v>522.05999999999995</v>
       </c>
       <c r="W72">
         <v>830.09</v>
@@ -7196,28 +7223,28 @@
         <v>1326.29</v>
       </c>
       <c r="Y72">
-        <v>1468.753</v>
+        <v>1468.7529999999999</v>
       </c>
       <c r="Z72">
         <v>3346.366</v>
       </c>
       <c r="AA72">
-        <v>84.18000000000001</v>
+        <v>84.18</v>
       </c>
       <c r="AB72">
         <v>4635.01</v>
       </c>
       <c r="AC72">
-        <v>566.8782</v>
+        <v>566.87819999999999</v>
       </c>
       <c r="AD72">
-        <v>862.1799999999999</v>
+        <v>862.18</v>
       </c>
       <c r="AE72">
-        <v>66.214</v>
+        <v>66.213999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45230</v>
       </c>
@@ -7228,10 +7255,10 @@
         <v>1640.758</v>
       </c>
       <c r="D73">
-        <v>2183.803</v>
+        <v>2183.8029999999999</v>
       </c>
       <c r="E73">
-        <v>1095.09</v>
+        <v>1095.0899999999999</v>
       </c>
       <c r="F73">
         <v>331.79</v>
@@ -7258,7 +7285,7 @@
         <v>871.91</v>
       </c>
       <c r="N73">
-        <v>1076.564</v>
+        <v>1076.5640000000001</v>
       </c>
       <c r="O73">
         <v>2238.04</v>
@@ -7273,7 +7300,7 @@
         <v>1288.81</v>
       </c>
       <c r="S73">
-        <v>1413.003</v>
+        <v>1413.0029999999999</v>
       </c>
       <c r="T73">
         <v>233.23</v>
@@ -7291,28 +7318,28 @@
         <v>1262.95</v>
       </c>
       <c r="Y73">
-        <v>1414.736</v>
+        <v>1414.7360000000001</v>
       </c>
       <c r="Z73">
         <v>3006.201</v>
       </c>
       <c r="AA73">
-        <v>81.43000000000001</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="AB73">
         <v>4432.04</v>
       </c>
       <c r="AC73">
-        <v>539.4059999999999</v>
+        <v>539.40599999999995</v>
       </c>
       <c r="AD73">
         <v>809.66</v>
       </c>
       <c r="AE73">
-        <v>63.254</v>
+        <v>63.253999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45260</v>
       </c>
@@ -7323,16 +7350,16 @@
         <v>1843.258</v>
       </c>
       <c r="D74">
-        <v>2381.147</v>
+        <v>2381.1469999999999</v>
       </c>
       <c r="E74">
-        <v>1211.87</v>
+        <v>1211.8699999999999</v>
       </c>
       <c r="F74">
         <v>349.19</v>
       </c>
       <c r="G74">
-        <v>294.8824</v>
+        <v>294.88240000000002</v>
       </c>
       <c r="H74">
         <v>241.71</v>
@@ -7359,7 +7386,7 @@
         <v>2515.33</v>
       </c>
       <c r="P74">
-        <v>2161.05</v>
+        <v>2161.0500000000002</v>
       </c>
       <c r="Q74">
         <v>1965</v>
@@ -7368,13 +7395,13 @@
         <v>1379.36</v>
       </c>
       <c r="S74">
-        <v>1573.861</v>
+        <v>1573.8610000000001</v>
       </c>
       <c r="T74">
         <v>257.82</v>
       </c>
       <c r="U74">
-        <v>557.5864</v>
+        <v>557.58640000000003</v>
       </c>
       <c r="V74">
         <v>588.27</v>
@@ -7389,7 +7416,7 @@
         <v>1579.242</v>
       </c>
       <c r="Z74">
-        <v>2929.728</v>
+        <v>2929.7280000000001</v>
       </c>
       <c r="AA74">
         <v>93.12</v>
@@ -7398,16 +7425,16 @@
         <v>4929.92</v>
       </c>
       <c r="AC74">
-        <v>588.7437</v>
+        <v>588.74369999999999</v>
       </c>
       <c r="AD74">
         <v>929.88</v>
       </c>
       <c r="AE74">
-        <v>67.197</v>
+        <v>67.197000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45289</v>
       </c>
@@ -7415,10 +7442,10 @@
         <v>109.04</v>
       </c>
       <c r="C75">
-        <v>1998.871</v>
+        <v>1998.8710000000001</v>
       </c>
       <c r="D75">
-        <v>2584.175</v>
+        <v>2584.1750000000002</v>
       </c>
       <c r="E75">
         <v>1327.99</v>
@@ -7427,10 +7454,10 @@
         <v>369.37</v>
       </c>
       <c r="G75">
-        <v>344.0277</v>
+        <v>344.02769999999998</v>
       </c>
       <c r="H75">
-        <v>261.29</v>
+        <v>261.29000000000002</v>
       </c>
       <c r="I75">
         <v>1601.27</v>
@@ -7445,7 +7472,7 @@
         <v>196.86</v>
       </c>
       <c r="M75">
-        <v>1055.14</v>
+        <v>1055.1400000000001</v>
       </c>
       <c r="N75">
         <v>1295.713</v>
@@ -7469,10 +7496,10 @@
         <v>281.64</v>
       </c>
       <c r="U75">
-        <v>604.0111000000001</v>
+        <v>604.01110000000006</v>
       </c>
       <c r="V75">
-        <v>652.92</v>
+        <v>652.91999999999996</v>
       </c>
       <c r="W75">
         <v>903.77</v>
@@ -7493,16 +7520,16 @@
         <v>5354.86</v>
       </c>
       <c r="AC75">
-        <v>636.7919000000001</v>
+        <v>636.79190000000006</v>
       </c>
       <c r="AD75">
         <v>1010.65</v>
       </c>
       <c r="AE75">
-        <v>73.53700000000001</v>
+        <v>73.537000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45322</v>
       </c>
@@ -7513,7 +7540,7 @@
         <v>1906.22</v>
       </c>
       <c r="D76">
-        <v>2475.572</v>
+        <v>2475.5720000000001</v>
       </c>
       <c r="E76">
         <v>1275.55</v>
@@ -7522,7 +7549,7 @@
         <v>356.39</v>
       </c>
       <c r="G76">
-        <v>325.6408</v>
+        <v>325.64080000000001</v>
       </c>
       <c r="H76">
         <v>249.73</v>
@@ -7549,7 +7576,7 @@
         <v>2582.98</v>
       </c>
       <c r="P76">
-        <v>2266.82</v>
+        <v>2266.8200000000002</v>
       </c>
       <c r="Q76">
         <v>1928.89</v>
@@ -7564,10 +7591,10 @@
         <v>269.98</v>
       </c>
       <c r="U76">
-        <v>575.3506</v>
+        <v>575.35059999999999</v>
       </c>
       <c r="V76">
-        <v>623.42</v>
+        <v>623.41999999999996</v>
       </c>
       <c r="W76">
         <v>862.91</v>
@@ -7579,25 +7606,25 @@
         <v>1626.989</v>
       </c>
       <c r="Z76">
-        <v>2495.301</v>
+        <v>2495.3009999999999</v>
       </c>
       <c r="AA76">
         <v>100.06</v>
       </c>
       <c r="AB76">
-        <v>5107.19</v>
+        <v>5107.1899999999996</v>
       </c>
       <c r="AC76">
-        <v>610.6506000000001</v>
+        <v>610.65060000000005</v>
       </c>
       <c r="AD76">
-        <v>925.1799999999999</v>
+        <v>925.18</v>
       </c>
       <c r="AE76">
         <v>77.012</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45351</v>
       </c>
@@ -7617,7 +7644,7 @@
         <v>345.93</v>
       </c>
       <c r="G77">
-        <v>323.3183</v>
+        <v>323.31830000000002</v>
       </c>
       <c r="H77">
         <v>251.7</v>
@@ -7638,13 +7665,13 @@
         <v>1005.61</v>
       </c>
       <c r="N77">
-        <v>1237.507</v>
+        <v>1237.5070000000001</v>
       </c>
       <c r="O77">
         <v>2641.9</v>
       </c>
       <c r="P77">
-        <v>2328.22</v>
+        <v>2328.2199999999998</v>
       </c>
       <c r="Q77">
         <v>1834.94</v>
@@ -7653,13 +7680,13 @@
         <v>1455.39</v>
       </c>
       <c r="S77">
-        <v>1637.564</v>
+        <v>1637.5640000000001</v>
       </c>
       <c r="T77">
         <v>274.51</v>
       </c>
       <c r="U77">
-        <v>587.08</v>
+        <v>587.08000000000004</v>
       </c>
       <c r="V77">
         <v>574.79</v>
@@ -7677,22 +7704,22 @@
         <v>2672.027</v>
       </c>
       <c r="AA77">
-        <v>92.45999999999999</v>
+        <v>92.46</v>
       </c>
       <c r="AB77">
         <v>5142.3</v>
       </c>
       <c r="AC77">
-        <v>612.3275</v>
+        <v>612.32749999999999</v>
       </c>
       <c r="AD77">
         <v>936.91</v>
       </c>
       <c r="AE77">
-        <v>76.657</v>
+        <v>76.656999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45380</v>
       </c>
@@ -7703,10 +7730,10 @@
         <v>1969.355</v>
       </c>
       <c r="D78">
-        <v>2546.878</v>
+        <v>2546.8780000000002</v>
       </c>
       <c r="E78">
-        <v>1299.41</v>
+        <v>1299.4100000000001</v>
       </c>
       <c r="F78">
         <v>359.87</v>
@@ -7715,7 +7742,7 @@
         <v>336.1712</v>
       </c>
       <c r="H78">
-        <v>258.29</v>
+        <v>258.29000000000002</v>
       </c>
       <c r="I78">
         <v>1591.36</v>
@@ -7730,10 +7757,10 @@
         <v>194.18</v>
       </c>
       <c r="M78">
-        <v>1032.59</v>
+        <v>1032.5899999999999</v>
       </c>
       <c r="N78">
-        <v>1256.647</v>
+        <v>1256.6469999999999</v>
       </c>
       <c r="O78">
         <v>2657.97</v>
@@ -7748,13 +7775,13 @@
         <v>1505.31</v>
       </c>
       <c r="S78">
-        <v>1684.311</v>
+        <v>1684.3109999999999</v>
       </c>
       <c r="T78">
         <v>277.76</v>
       </c>
       <c r="U78">
-        <v>601.8097</v>
+        <v>601.80970000000002</v>
       </c>
       <c r="V78">
         <v>617.13</v>
@@ -7766,10 +7793,10 @@
         <v>1503.23</v>
       </c>
       <c r="Y78">
-        <v>1680.438</v>
+        <v>1680.4380000000001</v>
       </c>
       <c r="Z78">
-        <v>2507.688</v>
+        <v>2507.6880000000001</v>
       </c>
       <c r="AA78">
         <v>100.8</v>
@@ -7778,7 +7805,7 @@
         <v>5292.2</v>
       </c>
       <c r="AC78">
-        <v>628.4711</v>
+        <v>628.47109999999998</v>
       </c>
       <c r="AD78">
         <v>947.23</v>
@@ -7787,7 +7814,7 @@
         <v>75.34</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45412</v>
       </c>
@@ -7795,7 +7822,7 @@
         <v>103.69</v>
       </c>
       <c r="C79">
-        <v>1813.235</v>
+        <v>1813.2349999999999</v>
       </c>
       <c r="D79">
         <v>2428.712</v>
@@ -7807,7 +7834,7 @@
         <v>351.97</v>
       </c>
       <c r="G79">
-        <v>322.7873</v>
+        <v>322.78730000000002</v>
       </c>
       <c r="H79">
         <v>239.86</v>
@@ -7828,13 +7855,13 @@
         <v>963.04</v>
       </c>
       <c r="N79">
-        <v>1163.438</v>
+        <v>1163.4380000000001</v>
       </c>
       <c r="O79">
-        <v>2417.32</v>
+        <v>2417.3200000000002</v>
       </c>
       <c r="P79">
-        <v>2380.72</v>
+        <v>2380.7199999999998</v>
       </c>
       <c r="Q79">
         <v>1964.52</v>
@@ -7849,10 +7876,10 @@
         <v>257.07</v>
       </c>
       <c r="U79">
-        <v>574.1976</v>
+        <v>574.19759999999997</v>
       </c>
       <c r="V79">
-        <v>604.08</v>
+        <v>604.08000000000004</v>
       </c>
       <c r="W79">
         <v>797.27</v>
@@ -7864,25 +7891,25 @@
         <v>1545.251</v>
       </c>
       <c r="Z79">
-        <v>2408.477</v>
+        <v>2408.4769999999999</v>
       </c>
       <c r="AA79">
         <v>98.95</v>
       </c>
       <c r="AB79">
-        <v>4984.35</v>
+        <v>4984.3500000000004</v>
       </c>
       <c r="AC79">
-        <v>587.7563</v>
+        <v>587.75630000000001</v>
       </c>
       <c r="AD79">
         <v>837.76</v>
       </c>
       <c r="AE79">
-        <v>73.52500000000001</v>
+        <v>73.525000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45443</v>
       </c>
@@ -7890,10 +7917,10 @@
         <v>107.27</v>
       </c>
       <c r="C80">
-        <v>1911.986</v>
+        <v>1911.9860000000001</v>
       </c>
       <c r="D80">
-        <v>2430.601</v>
+        <v>2430.6010000000001</v>
       </c>
       <c r="E80">
         <v>1273.33</v>
@@ -7902,7 +7929,7 @@
         <v>362.39</v>
       </c>
       <c r="G80">
-        <v>327.133</v>
+        <v>327.13299999999998</v>
       </c>
       <c r="H80">
         <v>248.12</v>
@@ -7920,10 +7947,10 @@
         <v>186.23</v>
       </c>
       <c r="M80">
-        <v>996.5700000000001</v>
+        <v>996.57</v>
       </c>
       <c r="N80">
-        <v>1215.033</v>
+        <v>1215.0329999999999</v>
       </c>
       <c r="O80">
         <v>2557.17</v>
@@ -7944,7 +7971,7 @@
         <v>269.14</v>
       </c>
       <c r="U80">
-        <v>599.8262999999999</v>
+        <v>599.82629999999995</v>
       </c>
       <c r="V80">
         <v>645.79</v>
@@ -7959,7 +7986,7 @@
         <v>1615.002</v>
       </c>
       <c r="Z80">
-        <v>2567.456</v>
+        <v>2567.4560000000001</v>
       </c>
       <c r="AA80">
         <v>103.83</v>
@@ -7968,16 +7995,16 @@
         <v>5166.7</v>
       </c>
       <c r="AC80">
-        <v>607.0445</v>
+        <v>607.04449999999997</v>
       </c>
       <c r="AD80">
         <v>831.63</v>
       </c>
       <c r="AE80">
-        <v>72.768</v>
+        <v>72.768000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45471</v>
       </c>
@@ -7985,19 +8012,19 @@
         <v>106.11</v>
       </c>
       <c r="C81">
-        <v>1939.149</v>
+        <v>1939.1489999999999</v>
       </c>
       <c r="D81">
-        <v>2395.597</v>
+        <v>2395.5970000000002</v>
       </c>
       <c r="E81">
-        <v>1290.09</v>
+        <v>1290.0899999999999</v>
       </c>
       <c r="F81">
         <v>351.65</v>
       </c>
       <c r="G81">
-        <v>325.9651</v>
+        <v>325.96510000000001</v>
       </c>
       <c r="H81">
         <v>247.4</v>
@@ -8018,7 +8045,7 @@
         <v>992.25</v>
       </c>
       <c r="N81">
-        <v>1217.737</v>
+        <v>1217.7370000000001</v>
       </c>
       <c r="O81">
         <v>2595.91</v>
@@ -8039,7 +8066,7 @@
         <v>274.68</v>
       </c>
       <c r="U81">
-        <v>616.1263</v>
+        <v>616.12630000000001</v>
       </c>
       <c r="V81">
         <v>604.36</v>
@@ -8051,28 +8078,28 @@
         <v>1482.35</v>
       </c>
       <c r="Y81">
-        <v>1637.254</v>
+        <v>1637.2539999999999</v>
       </c>
       <c r="Z81">
-        <v>2228.046</v>
+        <v>2228.0459999999998</v>
       </c>
       <c r="AA81">
-        <v>98.95999999999999</v>
+        <v>98.96</v>
       </c>
       <c r="AB81">
-        <v>5167.85</v>
+        <v>5167.8500000000004</v>
       </c>
       <c r="AC81">
-        <v>614.4288</v>
+        <v>614.42880000000002</v>
       </c>
       <c r="AD81">
         <v>840.45</v>
       </c>
       <c r="AE81">
-        <v>77.03100000000001</v>
+        <v>77.031000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45504</v>
       </c>
@@ -8080,10 +8107,10 @@
         <v>112.35</v>
       </c>
       <c r="C82">
-        <v>2061.436</v>
+        <v>2061.4360000000001</v>
       </c>
       <c r="D82">
-        <v>2540.113</v>
+        <v>2540.1129999999998</v>
       </c>
       <c r="E82">
         <v>1356.06</v>
@@ -8092,7 +8119,7 @@
         <v>368.11</v>
       </c>
       <c r="G82">
-        <v>358.3154</v>
+        <v>358.31540000000001</v>
       </c>
       <c r="H82">
         <v>263.95</v>
@@ -8113,7 +8140,7 @@
         <v>1062.2</v>
       </c>
       <c r="N82">
-        <v>1299.14</v>
+        <v>1299.1400000000001</v>
       </c>
       <c r="O82">
         <v>2779.81</v>
@@ -8128,13 +8155,13 @@
         <v>1583.51</v>
       </c>
       <c r="S82">
-        <v>1733.282</v>
+        <v>1733.2819999999999</v>
       </c>
       <c r="T82">
-        <v>290.28</v>
+        <v>290.27999999999997</v>
       </c>
       <c r="U82">
-        <v>652.1098</v>
+        <v>652.10979999999995</v>
       </c>
       <c r="V82">
         <v>627.4</v>
@@ -8146,7 +8173,7 @@
         <v>1566.58</v>
       </c>
       <c r="Y82">
-        <v>1764.198</v>
+        <v>1764.1980000000001</v>
       </c>
       <c r="Z82">
         <v>2277.989</v>
@@ -8158,16 +8185,16 @@
         <v>5521.32</v>
       </c>
       <c r="AC82">
-        <v>644.717</v>
+        <v>644.71699999999998</v>
       </c>
       <c r="AD82">
         <v>880.96</v>
       </c>
       <c r="AE82">
-        <v>80.34699999999999</v>
+        <v>80.346999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45534</v>
       </c>
@@ -8175,7 +8202,7 @@
         <v>117.34</v>
       </c>
       <c r="C83">
-        <v>2184.914</v>
+        <v>2184.9140000000002</v>
       </c>
       <c r="D83">
         <v>2717.54</v>
@@ -8187,7 +8214,7 @@
         <v>381.22</v>
       </c>
       <c r="G83">
-        <v>373.3033</v>
+        <v>373.30329999999998</v>
       </c>
       <c r="H83">
         <v>278.61</v>
@@ -8232,7 +8259,7 @@
         <v>699.8623</v>
       </c>
       <c r="V83">
-        <v>648.7</v>
+        <v>648.70000000000005</v>
       </c>
       <c r="W83">
         <v>870.88</v>
@@ -8244,7 +8271,7 @@
         <v>1854.049</v>
       </c>
       <c r="Z83">
-        <v>2210.28</v>
+        <v>2210.2800000000002</v>
       </c>
       <c r="AA83">
         <v>105.81</v>
@@ -8253,16 +8280,16 @@
         <v>5810.17</v>
       </c>
       <c r="AC83">
-        <v>675.6588</v>
+        <v>675.65880000000004</v>
       </c>
       <c r="AD83">
         <v>932.66</v>
       </c>
       <c r="AE83">
-        <v>87.553</v>
+        <v>87.552999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45565</v>
       </c>
@@ -8270,10 +8297,10 @@
         <v>124.43</v>
       </c>
       <c r="C84">
-        <v>2261.278</v>
+        <v>2261.2779999999998</v>
       </c>
       <c r="D84">
-        <v>2847.233</v>
+        <v>2847.2330000000002</v>
       </c>
       <c r="E84">
         <v>1477.46</v>
@@ -8282,7 +8309,7 @@
         <v>395.68</v>
       </c>
       <c r="G84">
-        <v>392.9287</v>
+        <v>392.92869999999999</v>
       </c>
       <c r="H84">
         <v>286.52</v>
@@ -8300,7 +8327,7 @@
         <v>219.45</v>
       </c>
       <c r="M84">
-        <v>1158.4</v>
+        <v>1158.4000000000001</v>
       </c>
       <c r="N84">
         <v>1411.693</v>
@@ -8318,13 +8345,13 @@
         <v>1681.76</v>
       </c>
       <c r="S84">
-        <v>1879.467</v>
+        <v>1879.4670000000001</v>
       </c>
       <c r="T84">
         <v>314.49</v>
       </c>
       <c r="U84">
-        <v>719.9243</v>
+        <v>719.92430000000002</v>
       </c>
       <c r="V84">
         <v>679.63</v>
@@ -8339,7 +8366,7 @@
         <v>1905.38</v>
       </c>
       <c r="Z84">
-        <v>2993.452</v>
+        <v>2993.4520000000002</v>
       </c>
       <c r="AA84">
         <v>111.73</v>
@@ -8348,16 +8375,16 @@
         <v>6067.53</v>
       </c>
       <c r="AC84">
-        <v>691.4845</v>
+        <v>691.48450000000003</v>
       </c>
       <c r="AD84">
-        <v>904.9299999999999</v>
+        <v>904.93</v>
       </c>
       <c r="AE84">
-        <v>91.34999999999999</v>
+        <v>91.35</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45596</v>
       </c>
@@ -8368,7 +8395,7 @@
         <v>2163.944</v>
       </c>
       <c r="D85">
-        <v>2616.548</v>
+        <v>2616.5479999999998</v>
       </c>
       <c r="E85">
         <v>1422.14</v>
@@ -8377,10 +8404,10 @@
         <v>375.21</v>
       </c>
       <c r="G85">
-        <v>384.211</v>
+        <v>384.21100000000001</v>
       </c>
       <c r="H85">
-        <v>272.4</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="I85">
         <v>1676.45</v>
@@ -8395,10 +8422,10 @@
         <v>211.97</v>
       </c>
       <c r="M85">
-        <v>1098.63</v>
+        <v>1098.6300000000001</v>
       </c>
       <c r="N85">
-        <v>1342.679</v>
+        <v>1342.6790000000001</v>
       </c>
       <c r="O85">
         <v>2923.24</v>
@@ -8419,22 +8446,22 @@
         <v>304.23</v>
       </c>
       <c r="U85">
-        <v>692.6805000000001</v>
+        <v>692.68050000000005</v>
       </c>
       <c r="V85">
         <v>607.5</v>
       </c>
       <c r="W85">
-        <v>817.8099999999999</v>
+        <v>817.81</v>
       </c>
       <c r="X85">
         <v>1640.01</v>
       </c>
       <c r="Y85">
-        <v>1846.315</v>
+        <v>1846.3150000000001</v>
       </c>
       <c r="Z85">
-        <v>2984.103</v>
+        <v>2984.1030000000001</v>
       </c>
       <c r="AA85">
         <v>103.02</v>
@@ -8443,16 +8470,16 @@
         <v>5775.64</v>
       </c>
       <c r="AC85">
-        <v>664.2239</v>
+        <v>664.22389999999996</v>
       </c>
       <c r="AD85">
         <v>935.72</v>
       </c>
       <c r="AE85">
-        <v>87.43300000000001</v>
+        <v>87.433000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45625</v>
       </c>
@@ -8460,10 +8487,10 @@
         <v>121.67</v>
       </c>
       <c r="C86">
-        <v>2230.93</v>
+        <v>2230.9299999999998</v>
       </c>
       <c r="D86">
-        <v>2607.351</v>
+        <v>2607.3510000000001</v>
       </c>
       <c r="E86">
         <v>1476.56</v>
@@ -8472,7 +8499,7 @@
         <v>383.7</v>
       </c>
       <c r="G86">
-        <v>388.2419</v>
+        <v>388.24189999999999</v>
       </c>
       <c r="H86">
         <v>278.73</v>
@@ -8490,10 +8517,10 @@
         <v>220.41</v>
       </c>
       <c r="M86">
-        <v>1120.84</v>
+        <v>1120.8399999999999</v>
       </c>
       <c r="N86">
-        <v>1372.947</v>
+        <v>1372.9469999999999</v>
       </c>
       <c r="O86">
         <v>3026.1</v>
@@ -8508,13 +8535,13 @@
         <v>1735.47</v>
       </c>
       <c r="S86">
-        <v>1825.205</v>
+        <v>1825.2049999999999</v>
       </c>
       <c r="T86">
         <v>317.62</v>
       </c>
       <c r="U86">
-        <v>722.228</v>
+        <v>722.22799999999995</v>
       </c>
       <c r="V86">
         <v>589.36</v>
@@ -8526,10 +8553,10 @@
         <v>1709.68</v>
       </c>
       <c r="Y86">
-        <v>1928.199</v>
+        <v>1928.1990000000001</v>
       </c>
       <c r="Z86">
-        <v>3035.747</v>
+        <v>3035.7469999999998</v>
       </c>
       <c r="AA86">
         <v>104.42</v>
@@ -8538,16 +8565,16 @@
         <v>5880.2</v>
       </c>
       <c r="AC86">
-        <v>682.314</v>
+        <v>682.31399999999996</v>
       </c>
       <c r="AD86">
-        <v>837.4299999999999</v>
+        <v>837.43</v>
       </c>
       <c r="AE86">
-        <v>88.29300000000001</v>
+        <v>88.293000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45657</v>
       </c>
@@ -8555,10 +8582,10 @@
         <v>113.34</v>
       </c>
       <c r="C87">
-        <v>2041.448</v>
+        <v>2041.4480000000001</v>
       </c>
       <c r="D87">
-        <v>2442.916</v>
+        <v>2442.9160000000002</v>
       </c>
       <c r="E87">
         <v>1361.24</v>
@@ -8585,7 +8612,7 @@
         <v>200.25</v>
       </c>
       <c r="M87">
-        <v>1034.89</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="N87">
         <v>1257.518</v>
@@ -8603,13 +8630,13 @@
         <v>1639.79</v>
       </c>
       <c r="S87">
-        <v>1676.689</v>
+        <v>1676.6890000000001</v>
       </c>
       <c r="T87">
         <v>293.08</v>
       </c>
       <c r="U87">
-        <v>662.8099999999999</v>
+        <v>662.81</v>
       </c>
       <c r="V87">
         <v>542.89</v>
@@ -8621,10 +8648,10 @@
         <v>1577.55</v>
       </c>
       <c r="Y87">
-        <v>1750.505</v>
+        <v>1750.5050000000001</v>
       </c>
       <c r="Z87">
-        <v>2707.722</v>
+        <v>2707.7220000000002</v>
       </c>
       <c r="AA87">
         <v>99.38</v>
@@ -8633,7 +8660,7 @@
         <v>5491.16</v>
       </c>
       <c r="AC87">
-        <v>633.1011</v>
+        <v>633.10109999999997</v>
       </c>
       <c r="AD87">
         <v>758.45</v>
@@ -8642,7 +8669,7 @@
         <v>88.747</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45688</v>
       </c>
@@ -8650,10 +8677,10 @@
         <v>115.72</v>
       </c>
       <c r="C88">
-        <v>2073.178</v>
+        <v>2073.1779999999999</v>
       </c>
       <c r="D88">
-        <v>2527.401</v>
+        <v>2527.4009999999998</v>
       </c>
       <c r="E88">
         <v>1377.49</v>
@@ -8662,7 +8689,7 @@
         <v>376.21</v>
       </c>
       <c r="G88">
-        <v>368.0759</v>
+        <v>368.07589999999999</v>
       </c>
       <c r="H88">
         <v>261.75</v>
@@ -8683,7 +8710,7 @@
         <v>1052.43</v>
       </c>
       <c r="N88">
-        <v>1276.801</v>
+        <v>1276.8009999999999</v>
       </c>
       <c r="O88">
         <v>2800.36</v>
@@ -8701,25 +8728,25 @@
         <v>1710.395</v>
       </c>
       <c r="T88">
-        <v>296.15</v>
+        <v>296.14999999999998</v>
       </c>
       <c r="U88">
-        <v>665.0957</v>
+        <v>665.09569999999997</v>
       </c>
       <c r="V88">
-        <v>564.6799999999999</v>
+        <v>564.67999999999995</v>
       </c>
       <c r="W88">
-        <v>787.4299999999999</v>
+        <v>787.43</v>
       </c>
       <c r="X88">
         <v>1594.2</v>
       </c>
       <c r="Y88">
-        <v>1780.776</v>
+        <v>1780.7760000000001</v>
       </c>
       <c r="Z88">
-        <v>2595.126</v>
+        <v>2595.1260000000002</v>
       </c>
       <c r="AA88">
         <v>103.52</v>
@@ -8728,7 +8755,7 @@
         <v>5575.99</v>
       </c>
       <c r="AC88">
-        <v>640.7851000000001</v>
+        <v>640.78510000000006</v>
       </c>
       <c r="AD88">
         <v>843.6</v>
@@ -8737,7 +8764,7 @@
         <v>85.991</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45716</v>
       </c>
@@ -8745,10 +8772,10 @@
         <v>114.45</v>
       </c>
       <c r="C89">
-        <v>2153.49</v>
+        <v>2153.4899999999998</v>
       </c>
       <c r="D89">
-        <v>2502.131</v>
+        <v>2502.1309999999999</v>
       </c>
       <c r="E89">
         <v>1414.78</v>
@@ -8757,10 +8784,10 @@
         <v>385.79</v>
       </c>
       <c r="G89">
-        <v>374.3312</v>
+        <v>374.33120000000002</v>
       </c>
       <c r="H89">
-        <v>269.15</v>
+        <v>269.14999999999998</v>
       </c>
       <c r="I89">
         <v>1651.6</v>
@@ -8775,10 +8802,10 @@
         <v>212.09</v>
       </c>
       <c r="M89">
-        <v>1078.11</v>
+        <v>1078.1099999999999</v>
       </c>
       <c r="N89">
-        <v>1320.073</v>
+        <v>1320.0730000000001</v>
       </c>
       <c r="O89">
         <v>2923.98</v>
@@ -8793,19 +8820,19 @@
         <v>1732.63</v>
       </c>
       <c r="S89">
-        <v>1748.822</v>
+        <v>1748.8219999999999</v>
       </c>
       <c r="T89">
         <v>307.08</v>
       </c>
       <c r="U89">
-        <v>702.0465</v>
+        <v>702.04650000000004</v>
       </c>
       <c r="V89">
         <v>567.04</v>
       </c>
       <c r="W89">
-        <v>793.3099999999999</v>
+        <v>793.31</v>
       </c>
       <c r="X89">
         <v>1652.62</v>
@@ -8814,7 +8841,7 @@
         <v>1844.79</v>
       </c>
       <c r="Z89">
-        <v>2701.381</v>
+        <v>2701.3809999999999</v>
       </c>
       <c r="AA89">
         <v>103.17</v>
@@ -8823,16 +8850,16 @@
         <v>5717.85</v>
       </c>
       <c r="AC89">
-        <v>653.5590999999999</v>
+        <v>653.55909999999994</v>
       </c>
       <c r="AD89">
         <v>813.51</v>
       </c>
       <c r="AE89">
-        <v>86.233</v>
+        <v>86.233000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45747</v>
       </c>
@@ -8840,7 +8867,7 @@
         <v>115.88</v>
       </c>
       <c r="C90">
-        <v>2103.573</v>
+        <v>2103.5729999999999</v>
       </c>
       <c r="D90">
         <v>2498.4</v>
@@ -8852,10 +8879,10 @@
         <v>370.45</v>
       </c>
       <c r="G90">
-        <v>360.1738</v>
+        <v>360.17380000000003</v>
       </c>
       <c r="H90">
-        <v>263.54</v>
+        <v>263.54000000000002</v>
       </c>
       <c r="I90">
         <v>1613.62</v>
@@ -8870,16 +8897,16 @@
         <v>205.71</v>
       </c>
       <c r="M90">
-        <v>1053.4</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="N90">
-        <v>1292.802</v>
+        <v>1292.8019999999999</v>
       </c>
       <c r="O90">
         <v>2830.72</v>
       </c>
       <c r="P90">
-        <v>2591.93</v>
+        <v>2591.9299999999998</v>
       </c>
       <c r="Q90">
         <v>1927.1</v>
@@ -8891,13 +8918,13 @@
         <v>1711.848</v>
       </c>
       <c r="T90">
-        <v>293.54</v>
+        <v>293.54000000000002</v>
       </c>
       <c r="U90">
-        <v>689.6238</v>
+        <v>689.62379999999996</v>
       </c>
       <c r="V90">
-        <v>576.9400000000001</v>
+        <v>576.94000000000005</v>
       </c>
       <c r="W90">
         <v>802.8</v>
@@ -8906,7 +8933,7 @@
         <v>1581.26</v>
       </c>
       <c r="Y90">
-        <v>1784.821</v>
+        <v>1784.8209999999999</v>
       </c>
       <c r="Z90">
         <v>2646.652</v>
@@ -8924,10 +8951,10 @@
         <v>891.72</v>
       </c>
       <c r="AE90">
-        <v>84.206</v>
+        <v>84.206000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45777</v>
       </c>
@@ -8938,7 +8965,7 @@
         <v>2102.069</v>
       </c>
       <c r="D91">
-        <v>2644.227</v>
+        <v>2644.2269999999999</v>
       </c>
       <c r="E91">
         <v>1342.41</v>
@@ -8950,7 +8977,7 @@
         <v>344.9615</v>
       </c>
       <c r="H91">
-        <v>267.1</v>
+        <v>267.10000000000002</v>
       </c>
       <c r="I91">
         <v>1641.35</v>
@@ -8965,7 +8992,7 @@
         <v>202.95</v>
       </c>
       <c r="M91">
-        <v>1064.64</v>
+        <v>1064.6400000000001</v>
       </c>
       <c r="N91">
         <v>1292.008</v>
@@ -9013,16 +9040,16 @@
         <v>5685.54</v>
       </c>
       <c r="AC91">
-        <v>623.4997</v>
+        <v>623.49969999999996</v>
       </c>
       <c r="AD91">
-        <v>994.6799999999999</v>
+        <v>994.68</v>
       </c>
       <c r="AE91">
-        <v>89.288</v>
+        <v>89.287999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45807</v>
       </c>
@@ -9030,10 +9057,10 @@
         <v>118.47</v>
       </c>
       <c r="C92">
-        <v>2135.854</v>
+        <v>2135.8539999999998</v>
       </c>
       <c r="D92">
-        <v>2724.378</v>
+        <v>2724.3780000000002</v>
       </c>
       <c r="E92">
         <v>1375.06</v>
@@ -9042,7 +9069,7 @@
         <v>366.28</v>
       </c>
       <c r="G92">
-        <v>356.394</v>
+        <v>356.39400000000001</v>
       </c>
       <c r="H92">
         <v>270.69</v>
@@ -9060,7 +9087,7 @@
         <v>204.67</v>
       </c>
       <c r="M92">
-        <v>1081.12</v>
+        <v>1081.1199999999999</v>
       </c>
       <c r="N92">
         <v>1309.184</v>
@@ -9078,16 +9105,16 @@
         <v>1580.53</v>
       </c>
       <c r="S92">
-        <v>1747.849</v>
+        <v>1747.8489999999999</v>
       </c>
       <c r="T92">
-        <v>290.47</v>
+        <v>290.47000000000003</v>
       </c>
       <c r="U92">
-        <v>671.7385</v>
+        <v>671.73850000000004</v>
       </c>
       <c r="V92">
-        <v>649.1799999999999</v>
+        <v>649.17999999999995</v>
       </c>
       <c r="W92">
         <v>857.26</v>
@@ -9096,10 +9123,10 @@
         <v>1568.27</v>
       </c>
       <c r="Y92">
-        <v>1752.301</v>
+        <v>1752.3009999999999</v>
       </c>
       <c r="Z92">
-        <v>2586.24</v>
+        <v>2586.2399999999998</v>
       </c>
       <c r="AA92">
         <v>106.28</v>
@@ -9108,16 +9135,16 @@
         <v>5777.97</v>
       </c>
       <c r="AC92">
-        <v>637.9103</v>
+        <v>637.91030000000001</v>
       </c>
       <c r="AD92">
-        <v>1066.09</v>
+        <v>1066.0899999999999</v>
       </c>
       <c r="AE92">
-        <v>91.48399999999999</v>
+        <v>91.483999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45838</v>
       </c>
@@ -9125,10 +9152,10 @@
         <v>122.08</v>
       </c>
       <c r="C93">
-        <v>2130.363</v>
+        <v>2130.3629999999998</v>
       </c>
       <c r="D93">
-        <v>2825.379</v>
+        <v>2825.3789999999999</v>
       </c>
       <c r="E93">
         <v>1366.76</v>
@@ -9137,7 +9164,7 @@
         <v>369.01</v>
       </c>
       <c r="G93">
-        <v>369.0337</v>
+        <v>369.03370000000001</v>
       </c>
       <c r="H93">
         <v>272.49</v>
@@ -9158,7 +9185,7 @@
         <v>1093.03</v>
       </c>
       <c r="N93">
-        <v>1306.398</v>
+        <v>1306.3979999999999</v>
       </c>
       <c r="O93">
         <v>2799.73</v>
@@ -9173,13 +9200,13 @@
         <v>1538.9</v>
       </c>
       <c r="S93">
-        <v>1764.477</v>
+        <v>1764.4770000000001</v>
       </c>
       <c r="T93">
         <v>285.67</v>
       </c>
       <c r="U93">
-        <v>673.6589</v>
+        <v>673.65890000000002</v>
       </c>
       <c r="V93">
         <v>660.46</v>
@@ -9194,7 +9221,7 @@
         <v>1750.692</v>
       </c>
       <c r="Z93">
-        <v>2655.285</v>
+        <v>2655.2849999999999</v>
       </c>
       <c r="AA93">
         <v>106.21</v>
@@ -9203,13 +9230,13 @@
         <v>5886.19</v>
       </c>
       <c r="AC93">
-        <v>636.7109</v>
+        <v>636.71090000000004</v>
       </c>
       <c r="AD93">
         <v>1110.44</v>
       </c>
       <c r="AE93">
-        <v>90.227</v>
+        <v>90.227000000000004</v>
       </c>
     </row>
   </sheetData>
